--- a/other/DFTOutputComparer.xlsx
+++ b/other/DFTOutputComparer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caibi\Development\CCHW\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2147704C-923D-4562-AE6C-9DDE03A2E785}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25299317-FB5A-429D-96A1-84B3F1E5637F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B47C612-C474-4B91-BE2C-CA782D74DD8D}"/>
   </bookViews>
@@ -34,15 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>True Expected</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Bin</t>
-  </si>
-  <si>
-    <t>Int Expected</t>
   </si>
   <si>
     <t>Received</t>
@@ -53,11 +47,26 @@
   <si>
     <t>&lt;- Paste sim output into these columns</t>
   </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Fbin</t>
+  </si>
+  <si>
+    <t>Folded Bins</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -109,7 +118,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -117,6 +126,12 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -240,7 +255,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$121</c:f>
+              <c:f>Sheet1!$D$2:$D$121</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="120"/>
@@ -609,369 +624,369 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$121</c:f>
+              <c:f>Sheet1!$E$2:$E$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="120"/>
                 <c:pt idx="0">
-                  <c:v>2788405.1251105098</c:v>
+                  <c:v>35225330</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2962665.8647469599</c:v>
+                  <c:v>18585585</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3132193.23478727</c:v>
+                  <c:v>19543775</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3289318.4798690798</c:v>
+                  <c:v>35790140</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3426653.7605215199</c:v>
+                  <c:v>12261271</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3537156.4251245302</c:v>
+                  <c:v>28438522</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3614234.90291426</c:v>
+                  <c:v>32000447</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3651918.97649551</c:v>
+                  <c:v>9805364</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3645113.890906</c:v>
+                  <c:v>37674233</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3589962.5617558998</c:v>
+                  <c:v>12383519</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3484354.4859281601</c:v>
+                  <c:v>34126341</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3328649.0292273602</c:v>
+                  <c:v>24231791</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3126734.2301334599</c:v>
+                  <c:v>28782225</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2887628.9572176002</c:v>
+                  <c:v>30429267</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2627923.6129219802</c:v>
+                  <c:v>26615567</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2375177.7911851401</c:v>
+                  <c:v>31937749</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2170874.4984208299</c:v>
+                  <c:v>29894902</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2066663.6180918801</c:v>
+                  <c:v>28158295</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2103795.17232707</c:v>
+                  <c:v>38357234</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2284311.9570526001</c:v>
+                  <c:v>15693845</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2568600.9641155498</c:v>
+                  <c:v>46752497</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2900403.0757362102</c:v>
+                  <c:v>12998213</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3226545.7644144902</c:v>
+                  <c:v>40885144</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3502440.5397646101</c:v>
+                  <c:v>44642417</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3691898.6899579</c:v>
+                  <c:v>6359885</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3766877.0830696402</c:v>
+                  <c:v>49420374</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3708644.8528331202</c:v>
+                  <c:v>52662969</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3510707.4328202098</c:v>
+                  <c:v>13753673</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3184235.96205498</c:v>
+                  <c:v>39459673</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2768319.8704197002</c:v>
+                  <c:v>69957201</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2349576.4052828001</c:v>
+                  <c:v>66454999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2084756.2185851999</c:v>
+                  <c:v>34457501</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2144796.33922265</c:v>
+                  <c:v>14348583</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2525131.8319275002</c:v>
+                  <c:v>62510773</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3047098.16662637</c:v>
+                  <c:v>108170505</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3532166.4563779398</c:v>
+                  <c:v>153210337</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3853739.1187019902</c:v>
+                  <c:v>211623865</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3929108.7144194399</c:v>
+                  <c:v>330914397</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3718661.4672819301</c:v>
+                  <c:v>871294167</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3239841.65057754</c:v>
+                  <c:v>1111282611</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2605748.2987956</c:v>
+                  <c:v>328248045</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2116650.69927298</c:v>
+                  <c:v>184738886</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2224384.7031350499</c:v>
+                  <c:v>114308873</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2886342.2300742399</c:v>
+                  <c:v>61258585</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3624867.6172076799</c:v>
+                  <c:v>14859518</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4094047.7645781599</c:v>
+                  <c:v>26800049</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4106017.68244721</c:v>
+                  <c:v>46486668</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3609183.0974469399</c:v>
+                  <c:v>37814946</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2749107.0527415602</c:v>
+                  <c:v>8342953</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2099095.7463513198</c:v>
+                  <c:v>26485195</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2542374.8932884601</c:v>
+                  <c:v>22703339</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3587723.9327272899</c:v>
+                  <c:v>12341278</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4338379.9613073897</c:v>
+                  <c:v>20867531</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4359830.9636817602</c:v>
+                  <c:v>11145697</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3563335.55215722</c:v>
+                  <c:v>15309507</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2381404.7133538099</c:v>
+                  <c:v>16238042</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2377315.04031647</c:v>
+                  <c:v>6824736</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3739731.90547544</c:v>
+                  <c:v>13932928</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4726990.9829086298</c:v>
+                  <c:v>18153942</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4550223.65507368</c:v>
+                  <c:v>15629767</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3200966.9530222602</c:v>
+                  <c:v>10290520</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2170443.4507008302</c:v>
+                  <c:v>5833205</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3683697.79325965</c:v>
+                  <c:v>4047158</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5120850.2218346503</c:v>
+                  <c:v>4412715</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4873258.6729210401</c:v>
+                  <c:v>10675893</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2982919.4834788502</c:v>
+                  <c:v>25369855</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2678054.4023011699</c:v>
+                  <c:v>44276228</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5028320.5224220799</c:v>
+                  <c:v>47752439</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5718610.1494128201</c:v>
+                  <c:v>5303437</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3761687.05265737</c:v>
+                  <c:v>132523309</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2637853.0958494502</c:v>
+                  <c:v>166855690</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5633899.07968977</c:v>
+                  <c:v>343282355</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>6235066.2530859699</c:v>
+                  <c:v>10198500</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3287405.6853858102</c:v>
+                  <c:v>59860533</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4101395.9689351199</c:v>
+                  <c:v>54458946</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7218702.3028456001</c:v>
+                  <c:v>36321674</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5410162.33475425</c:v>
+                  <c:v>25153314</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3074535.7116245902</c:v>
+                  <c:v>22236062</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7839976.88857147</c:v>
+                  <c:v>23336943</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6796031.71180043</c:v>
+                  <c:v>21196667</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3183761.2299105199</c:v>
+                  <c:v>7798189</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9270130.5120487101</c:v>
+                  <c:v>12792948</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7087884.9671527101</c:v>
+                  <c:v>11678242</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5278472.5660315398</c:v>
+                  <c:v>12748865</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>11667982.3756849</c:v>
+                  <c:v>2322911</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4719364.2432929203</c:v>
+                  <c:v>7516814</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>11472528.006004199</c:v>
+                  <c:v>9906465</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>11854968.023884701</c:v>
+                  <c:v>9374629</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8069772.7104187701</c:v>
+                  <c:v>5804768</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>18475216.665810902</c:v>
+                  <c:v>5446996</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4542188.3072570199</c:v>
+                  <c:v>13861756</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>26081362.003023699</c:v>
+                  <c:v>3312637</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5839892.4606899498</c:v>
+                  <c:v>16570089</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>41907969.162762202</c:v>
+                  <c:v>21580278</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>10331084.5436021</c:v>
+                  <c:v>25967103</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>123053315.269669</c:v>
+                  <c:v>42932194</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>209186946.210473</c:v>
+                  <c:v>83772340</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>174059597.997284</c:v>
+                  <c:v>1573608159</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>157944738.71489599</c:v>
+                  <c:v>92754479</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>77163583.226031199</c:v>
+                  <c:v>31020332</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>32775844.406924199</c:v>
+                  <c:v>9226350</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>16742553.092472101</c:v>
+                  <c:v>9536669</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>28783946.149049498</c:v>
+                  <c:v>17230450</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>7928680.2951832404</c:v>
+                  <c:v>12666657</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>16566384.362206999</c:v>
+                  <c:v>12027155</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>21296367.139701601</c:v>
+                  <c:v>3864707</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>6698033.2311467296</c:v>
+                  <c:v>2791334</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>17994237.242117599</c:v>
+                  <c:v>7050987</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>35148835.803686298</c:v>
+                  <c:v>9000435</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>39155805.054661103</c:v>
+                  <c:v>5739419</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>153643455.03721401</c:v>
+                  <c:v>2045075</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>43915136.658642702</c:v>
+                  <c:v>2762221</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>29881150.109276298</c:v>
+                  <c:v>6736494</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>19652798.561991099</c:v>
+                  <c:v>2383197</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>12316139.4048208</c:v>
+                  <c:v>5303013</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>7595986.8429422202</c:v>
+                  <c:v>4603413</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>4970602.8402891299</c:v>
+                  <c:v>1591861</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>3765399.5451369798</c:v>
+                  <c:v>5142471</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>3335845.1650191201</c:v>
+                  <c:v>5169886</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>3356189.8708636402</c:v>
+                  <c:v>4671919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1003,7 +1018,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$121</c:f>
+              <c:f>Sheet1!$D$2:$D$121</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="120"/>
@@ -1372,369 +1387,369 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$121</c:f>
+              <c:f>Sheet1!$F$2:$F$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="120"/>
                 <c:pt idx="0">
-                  <c:v>2770844</c:v>
+                  <c:v>15149543</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4110690</c:v>
+                  <c:v>6494531</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4529385</c:v>
+                  <c:v>13988524</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4661533</c:v>
+                  <c:v>20093781</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6009092</c:v>
+                  <c:v>7703147</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5864820</c:v>
+                  <c:v>5996386</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7157560</c:v>
+                  <c:v>21135917</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7297135</c:v>
+                  <c:v>12415012</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7457424</c:v>
+                  <c:v>5558688</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7707782</c:v>
+                  <c:v>22312112</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7782854</c:v>
+                  <c:v>7623525</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7748248</c:v>
+                  <c:v>15174372</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7783178</c:v>
+                  <c:v>22691001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7627115</c:v>
+                  <c:v>11009162</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6544372</c:v>
+                  <c:v>16836026</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5883425</c:v>
+                  <c:v>24861707</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5650018</c:v>
+                  <c:v>14202111</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4583000</c:v>
+                  <c:v>27529944</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2633234</c:v>
+                  <c:v>8535768</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2360193</c:v>
+                  <c:v>25995622</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1729797</c:v>
+                  <c:v>6467554</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2558157</c:v>
+                  <c:v>32188457</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3200097</c:v>
+                  <c:v>7753663</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2992974</c:v>
+                  <c:v>8563453</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3072304</c:v>
+                  <c:v>2547196</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2133627</c:v>
+                  <c:v>34621351</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>927049</c:v>
+                  <c:v>8224703</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>526340</c:v>
+                  <c:v>44149925</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1854003</c:v>
+                  <c:v>37389086</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2832989</c:v>
+                  <c:v>44254989</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4196890</c:v>
+                  <c:v>53385132</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5321011</c:v>
+                  <c:v>30596053</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5451617</c:v>
+                  <c:v>65782735</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5432304</c:v>
+                  <c:v>39857674</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5668133</c:v>
+                  <c:v>109328950</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5653323</c:v>
+                  <c:v>3070756</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3935771</c:v>
+                  <c:v>160908933</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3196625</c:v>
+                  <c:v>234660409</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1358435</c:v>
+                  <c:v>116760588</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>758765</c:v>
+                  <c:v>1373759311</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3263081</c:v>
+                  <c:v>566479719</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3940653</c:v>
+                  <c:v>298032423</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5019914</c:v>
+                  <c:v>190679935</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6372503</c:v>
+                  <c:v>125235629</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6070291</c:v>
+                  <c:v>103557760</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4916925</c:v>
+                  <c:v>79743587</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2681941</c:v>
+                  <c:v>55837214</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2798982</c:v>
+                  <c:v>58395038</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2735385</c:v>
+                  <c:v>40557338</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3745462</c:v>
+                  <c:v>17194928</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4280316</c:v>
+                  <c:v>18573872</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5499640</c:v>
+                  <c:v>32085299</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4301641</c:v>
+                  <c:v>25369528</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4184958</c:v>
+                  <c:v>16156628</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2073496</c:v>
+                  <c:v>12076266</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2721137</c:v>
+                  <c:v>12226074</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3906105</c:v>
+                  <c:v>13528140</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4635318</c:v>
+                  <c:v>15771805</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4686365</c:v>
+                  <c:v>16139943</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4509357</c:v>
+                  <c:v>14063691</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1831979</c:v>
+                  <c:v>17936170</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3788533</c:v>
+                  <c:v>11569764</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4259530</c:v>
+                  <c:v>19263228</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6229045</c:v>
+                  <c:v>10185541</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4739278</c:v>
+                  <c:v>24473405</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3038223</c:v>
+                  <c:v>26830901</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3483616</c:v>
+                  <c:v>23316824</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5738066</c:v>
+                  <c:v>21988739</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5398325</c:v>
+                  <c:v>48340485</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3123238</c:v>
+                  <c:v>110731005</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4239542</c:v>
+                  <c:v>207389008</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4420691</c:v>
+                  <c:v>201430141</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>6576882</c:v>
+                  <c:v>146269673</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3078181</c:v>
+                  <c:v>87751625</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2884780</c:v>
+                  <c:v>4169614</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>9768357</c:v>
+                  <c:v>58290251</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5757358</c:v>
+                  <c:v>17407529</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4005171</c:v>
+                  <c:v>36797028</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>8550137</c:v>
+                  <c:v>28206824</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>7722081</c:v>
+                  <c:v>25206742</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4090617</c:v>
+                  <c:v>25717781</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5930185</c:v>
+                  <c:v>25744902</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7167719</c:v>
+                  <c:v>14989031</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4171151</c:v>
+                  <c:v>15962162</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>11931580</c:v>
+                  <c:v>17649819</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9233605</c:v>
+                  <c:v>8049615</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4499357</c:v>
+                  <c:v>4174037</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>15499573</c:v>
+                  <c:v>8303118</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>6595978</c:v>
+                  <c:v>16705187</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>16021357</c:v>
+                  <c:v>8007178</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>14592538</c:v>
+                  <c:v>18163900</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>19140806</c:v>
+                  <c:v>18478557</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>21704532</c:v>
+                  <c:v>21253259</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>34456837</c:v>
+                  <c:v>4623925</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>20885328</c:v>
+                  <c:v>26833137</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>20436835</c:v>
+                  <c:v>27093511</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>219889057</c:v>
+                  <c:v>74629941</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>188294687</c:v>
+                  <c:v>1381097830</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>179646049</c:v>
+                  <c:v>24803970</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>160466420</c:v>
+                  <c:v>7649699</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>12080481</c:v>
+                  <c:v>33233826</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>44380044</c:v>
+                  <c:v>6047871</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>30516305</c:v>
+                  <c:v>20299204</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>10163186</c:v>
+                  <c:v>16231868</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>23698440</c:v>
+                  <c:v>13990623</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>7827547</c:v>
+                  <c:v>4595041</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>3558599</c:v>
+                  <c:v>6599326</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>26784890</c:v>
+                  <c:v>5845700</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>20193324</c:v>
+                  <c:v>9619079</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>23058139</c:v>
+                  <c:v>1052284</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>118165262</c:v>
+                  <c:v>5283516</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>150518488</c:v>
+                  <c:v>1986817</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>9142687</c:v>
+                  <c:v>7351207</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>11007592</c:v>
+                  <c:v>6224575</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>13519257</c:v>
+                  <c:v>5773724</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>11937211</c:v>
+                  <c:v>6120189</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>9586970</c:v>
+                  <c:v>5898482</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>6491543</c:v>
+                  <c:v>6071055</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2720135</c:v>
+                  <c:v>2330696</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2621586</c:v>
+                  <c:v>2570786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2029,8 +2044,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.9447146405757925E-2"/>
-          <c:y val="5.3036928345083348E-2"/>
+          <c:x val="4.9447167417902178E-2"/>
+          <c:y val="6.7059648182659845E-2"/>
           <c:w val="6.9953330693201157E-2"/>
           <c:h val="7.8878721858044884E-2"/>
         </c:manualLayout>
@@ -2108,7 +2123,665 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>DFT Output Comparison (Folded Bins)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5639794858349675E-2"/>
+          <c:y val="0.11671427534738348"/>
+          <c:w val="0.89628708551150871"/>
+          <c:h val="0.82653413899977646"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Expected</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$4:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>143899008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1727959846</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>242123508</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129227097</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>106968139</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>141314151</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>154332346</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94364231</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78672896</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>105484875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>174920364</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>212871747</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>262019956</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>380433102</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>913908432</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1159769925</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>381360102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>246097229</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>216107104</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>132620919</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>85077402</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>199044320</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>285364491</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>473343831</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-04A5-4834-901E-65CF6BC07FF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Received</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$4:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>279153691</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1527160265</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69760683</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>162268955</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>121103116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>109252902</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135103343</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96675749</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>124577967</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>108281534</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>154680775</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54116681</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>228805002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>266341234</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>162317395</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1419096494</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>629211629</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>366625021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>246470151</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>197818736</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>185517540</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>233358029</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>300143718</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>298052929</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-04A5-4834-901E-65CF6BC07FF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="905404543"/>
+        <c:axId val="905400799"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="905404543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Bin Index</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="905400799"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="905400799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Output Value Sum</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="905404543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79034905938635858"/>
+          <c:y val="7.0792764042803713E-2"/>
+          <c:w val="0.18084968968913076"/>
+          <c:h val="0.10779114583134916"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2664,20 +3337,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2697,6 +3886,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBAA8C5F-8B77-47DD-85B9-726A9F4CDC61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3002,2321 +4227,2907 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB01CF6-436E-4E68-9CAA-A267F734DF63}">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA15" sqref="AA15"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
         <v>55</v>
       </c>
-      <c r="C2">
-        <v>2788405.1251105098</v>
-      </c>
-      <c r="D2">
-        <v>2788405</v>
-      </c>
       <c r="E2">
-        <v>2770844</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35225330</v>
+      </c>
+      <c r="F2">
+        <v>15149543</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <f>POWER(2,A3/24)*$B$2</f>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <f>POWER(2,A3/24)*$D$2</f>
         <v>56.611623015392063</v>
       </c>
-      <c r="C3">
-        <v>2962665.8647469599</v>
-      </c>
-      <c r="D3">
-        <v>2962666</v>
-      </c>
       <c r="E3">
-        <v>4110690</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18585585</v>
+      </c>
+      <c r="F3">
+        <v>6494531</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <f>POWER(2,A4/24)*$B$2</f>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <f>POWER(2,A4/24)*$D$2</f>
         <v>58.270470189761241</v>
       </c>
-      <c r="C4">
-        <v>3132193.23478727</v>
-      </c>
-      <c r="D4">
-        <v>3132193</v>
-      </c>
       <c r="E4">
-        <v>4529385</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19543775</v>
+      </c>
+      <c r="F4">
+        <v>13988524</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4">
+        <f>E2+E26+E50+E74+E98</f>
+        <v>143899008</v>
+      </c>
+      <c r="I4">
+        <f>F2+F26+F50+F74+F98</f>
+        <v>279153691</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <f>POWER(2,A5/24)*$B$2</f>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <f>POWER(2,A5/24)*$D$2</f>
         <v>59.97792529658917</v>
       </c>
-      <c r="C5">
-        <v>3289318.4798690798</v>
-      </c>
-      <c r="D5">
-        <v>3289318</v>
-      </c>
       <c r="E5">
-        <v>4661533</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35790140</v>
+      </c>
+      <c r="F5">
+        <v>20093781</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5">
+        <f>E3+E27+E51+E75+E99</f>
+        <v>1727959846</v>
+      </c>
+      <c r="I5">
+        <f>F3+F27+F51+F75+F99</f>
+        <v>1527160265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <f>POWER(2,A6/24)*$B$2</f>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <f>POWER(2,A6/24)*$D$2</f>
         <v>61.735412657015516</v>
       </c>
-      <c r="C6">
-        <v>3426653.7605215199</v>
-      </c>
-      <c r="D6">
-        <v>3426654</v>
-      </c>
       <c r="E6">
-        <v>6009092</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12261271</v>
+      </c>
+      <c r="F6">
+        <v>7703147</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6">
+        <f>E4+E28+E52+E76+E100</f>
+        <v>242123508</v>
+      </c>
+      <c r="I6">
+        <f>F4+F28+F52+F76+F100</f>
+        <v>69760683</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <f>POWER(2,A7/24)*$B$2</f>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <f>POWER(2,A7/24)*$D$2</f>
         <v>63.54439832797501</v>
       </c>
-      <c r="C7">
-        <v>3537156.4251245302</v>
-      </c>
-      <c r="D7">
-        <v>3537156</v>
-      </c>
       <c r="E7">
-        <v>5864820</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28438522</v>
+      </c>
+      <c r="F7">
+        <v>5996386</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7">
+        <f>E5+E29+E53+E77+E101</f>
+        <v>129227097</v>
+      </c>
+      <c r="I7">
+        <f>F5+F29+F53+F77+F101</f>
+        <v>162268955</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <f>POWER(2,A8/24)*$B$2</f>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <f>POWER(2,A8/24)*$D$2</f>
         <v>65.406391325149656</v>
       </c>
-      <c r="C8">
-        <v>3614234.90291426</v>
-      </c>
-      <c r="D8">
-        <v>3614235</v>
-      </c>
       <c r="E8">
-        <v>7157560</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32000447</v>
+      </c>
+      <c r="F8">
+        <v>21135917</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8">
+        <f>E6+E30+E54+E78+E102</f>
+        <v>106968139</v>
+      </c>
+      <c r="I8">
+        <f>F6+F30+F54+F78+F102</f>
+        <v>121103116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <f>POWER(2,A9/24)*$B$2</f>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1">
+        <f>POWER(2,A9/24)*$D$2</f>
         <v>67.322944881756044</v>
       </c>
-      <c r="C9">
-        <v>3651918.97649551</v>
-      </c>
-      <c r="D9">
-        <v>3651919</v>
-      </c>
       <c r="E9">
-        <v>7297135</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9805364</v>
+      </c>
+      <c r="F9">
+        <v>12415012</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9">
+        <f>E7+E31+E55+E79+E103</f>
+        <v>141314151</v>
+      </c>
+      <c r="I9">
+        <f>F7+F31+F55+F79+F103</f>
+        <v>109252902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <f>POWER(2,A10/24)*$B$2</f>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
+        <f>POWER(2,A10/24)*$D$2</f>
         <v>69.295657744218019</v>
       </c>
-      <c r="C10">
-        <v>3645113.890906</v>
-      </c>
-      <c r="D10">
-        <v>3645114</v>
-      </c>
       <c r="E10">
-        <v>7457424</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37674233</v>
+      </c>
+      <c r="F10">
+        <v>5558688</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10">
+        <f>E8+E32+E56+E80+E104</f>
+        <v>154332346</v>
+      </c>
+      <c r="I10">
+        <f>F8+F32+F56+F80+F104</f>
+        <v>135103343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <f>POWER(2,A11/24)*$B$2</f>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1">
+        <f>POWER(2,A11/24)*$D$2</f>
         <v>71.326175505805537</v>
       </c>
-      <c r="C11">
-        <v>3589962.5617558998</v>
-      </c>
-      <c r="D11">
-        <v>3589963</v>
-      </c>
       <c r="E11">
-        <v>7707782</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12383519</v>
+      </c>
+      <c r="F11">
+        <v>22312112</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11">
+        <f>E9+E33+E57+E81+E105</f>
+        <v>94364231</v>
+      </c>
+      <c r="I11">
+        <f>F9+F33+F57+F81+F105</f>
+        <v>96675749</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <f>POWER(2,A12/24)*$B$2</f>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1">
+        <f>POWER(2,A12/24)*$D$2</f>
         <v>73.416191979351893</v>
       </c>
-      <c r="C12">
-        <v>3484354.4859281601</v>
-      </c>
-      <c r="D12">
-        <v>3484354</v>
-      </c>
       <c r="E12">
-        <v>7782854</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34126341</v>
+      </c>
+      <c r="F12">
+        <v>7623525</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12">
+        <f>E10+E34+E58+E82+E106</f>
+        <v>78672896</v>
+      </c>
+      <c r="I12">
+        <f>F10+F34+F58+F82+F106</f>
+        <v>124577967</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
-        <f>POWER(2,A13/24)*$B$2</f>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1">
+        <f>POWER(2,A13/24)*$D$2</f>
         <v>75.567450610194896</v>
       </c>
-      <c r="C13">
-        <v>3328649.0292273602</v>
-      </c>
-      <c r="D13">
-        <v>3328649</v>
-      </c>
       <c r="E13">
-        <v>7748248</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24231791</v>
+      </c>
+      <c r="F13">
+        <v>15174372</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13">
+        <f>E11+E35+E59+E83+E107</f>
+        <v>105484875</v>
+      </c>
+      <c r="I13">
+        <f>F11+F35+F59+F83+F107</f>
+        <v>108281534</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
-        <f>POWER(2,A14/24)*$B$2</f>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1">
+        <f>POWER(2,A14/24)*$D$2</f>
         <v>77.781745930520231</v>
       </c>
-      <c r="C14">
-        <v>3126734.2301334599</v>
-      </c>
-      <c r="D14">
-        <v>3126734</v>
-      </c>
       <c r="E14">
-        <v>7783178</v>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28782225</v>
+      </c>
+      <c r="F14">
+        <v>22691001</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14">
+        <f>E12+E36+E60+E84+E108</f>
+        <v>174920364</v>
+      </c>
+      <c r="I14">
+        <f>F12+F36+F60+F84+F108</f>
+        <v>154680775</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
-        <f>POWER(2,A15/24)*$B$2</f>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1">
+        <f>POWER(2,A15/24)*$D$2</f>
         <v>80.060925056320301</v>
       </c>
-      <c r="C15">
-        <v>2887628.9572176002</v>
-      </c>
-      <c r="D15">
-        <v>2887629</v>
-      </c>
       <c r="E15">
-        <v>7627115</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30429267</v>
+      </c>
+      <c r="F15">
+        <v>11009162</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15">
+        <f>E13+E37+E61+E85+E109</f>
+        <v>212871747</v>
+      </c>
+      <c r="I15">
+        <f>F13+F37+F61+F85+F109</f>
+        <v>54116681</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
-        <f>POWER(2,A16/24)*$B$2</f>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1">
+        <f>POWER(2,A16/24)*$D$2</f>
         <v>82.40688922821748</v>
       </c>
-      <c r="C16">
-        <v>2627923.6129219802</v>
-      </c>
-      <c r="D16">
-        <v>2627924</v>
-      </c>
       <c r="E16">
-        <v>6544372</v>
-      </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26615567</v>
+      </c>
+      <c r="F16">
+        <v>16836026</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16">
+        <f>E14+E38+E62+E86+E110</f>
+        <v>262019956</v>
+      </c>
+      <c r="I16">
+        <f>F14+F38+F62+F86+F110</f>
+        <v>228805002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
-        <f>POWER(2,A17/24)*$B$2</f>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1">
+        <f>POWER(2,A17/24)*$D$2</f>
         <v>84.821595397436738</v>
       </c>
-      <c r="C17">
-        <v>2375177.7911851401</v>
-      </c>
-      <c r="D17">
-        <v>2375178</v>
-      </c>
       <c r="E17">
-        <v>5883425</v>
-      </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31937749</v>
+      </c>
+      <c r="F17">
+        <v>24861707</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17">
+        <f>E15+E39+E63+E87+E111</f>
+        <v>380433102</v>
+      </c>
+      <c r="I17">
+        <f>F15+F39+F63+F87+F111</f>
+        <v>266341234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
-        <f>POWER(2,A18/24)*$B$2</f>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1">
+        <f>POWER(2,A18/24)*$D$2</f>
         <v>87.307057858250971</v>
       </c>
-      <c r="C18">
-        <v>2170874.4984208299</v>
-      </c>
-      <c r="D18">
-        <v>2170874</v>
-      </c>
       <c r="E18">
-        <v>5650018</v>
-      </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29894902</v>
+      </c>
+      <c r="F18">
+        <v>14202111</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18">
+        <f>E16+E40+E64+E88+E112</f>
+        <v>913908432</v>
+      </c>
+      <c r="I18">
+        <f>F16+F40+F64+F88+F112</f>
+        <v>162317395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
-        <f>POWER(2,A19/24)*$B$2</f>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1">
+        <f>POWER(2,A19/24)*$D$2</f>
         <v>89.865349928260486</v>
       </c>
-      <c r="C19">
-        <v>2066663.6180918801</v>
-      </c>
-      <c r="D19">
-        <v>2066664</v>
-      </c>
       <c r="E19">
-        <v>4583000</v>
-      </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28158295</v>
+      </c>
+      <c r="F19">
+        <v>27529944</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19">
+        <f>E17+E41+E65+E89+E113</f>
+        <v>1159769925</v>
+      </c>
+      <c r="I19">
+        <f>F17+F41+F65+F89+F113</f>
+        <v>1419096494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
-        <f>POWER(2,A20/24)*$B$2</f>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1">
+        <f>POWER(2,A20/24)*$D$2</f>
         <v>92.4986056779086</v>
       </c>
-      <c r="C20">
-        <v>2103795.17232707</v>
-      </c>
-      <c r="D20">
-        <v>2103795</v>
-      </c>
       <c r="E20">
-        <v>2633234</v>
-      </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38357234</v>
+      </c>
+      <c r="F20">
+        <v>8535768</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20">
+        <f>E18+E42+E66+E90+E114</f>
+        <v>381360102</v>
+      </c>
+      <c r="I20">
+        <f>F18+F42+F66+F90+F114</f>
+        <v>629211629</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
-        <f>POWER(2,A21/24)*$B$2</f>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21" s="1">
+        <f>POWER(2,A21/24)*$D$2</f>
         <v>95.209021710675728</v>
       </c>
-      <c r="C21">
-        <v>2284311.9570526001</v>
-      </c>
-      <c r="D21">
-        <v>2284312</v>
-      </c>
       <c r="E21">
-        <v>2360193</v>
-      </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15693845</v>
+      </c>
+      <c r="F21">
+        <v>25995622</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21">
+        <f>E19+E43+E67+E91+E115</f>
+        <v>246097229</v>
+      </c>
+      <c r="I21">
+        <f>F19+F43+F67+F91+F115</f>
+        <v>366625021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
-        <f>POWER(2,A22/24)*$B$2</f>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1">
+        <f>POWER(2,A22/24)*$D$2</f>
         <v>97.998858995437317</v>
       </c>
-      <c r="C22">
-        <v>2568600.9641155498</v>
-      </c>
-      <c r="D22">
-        <v>2568601</v>
-      </c>
       <c r="E22">
-        <v>1729797</v>
-      </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46752497</v>
+      </c>
+      <c r="F22">
+        <v>6467554</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22">
+        <f>E20+E44+E68+E92+E116</f>
+        <v>216107104</v>
+      </c>
+      <c r="I22">
+        <f>F20+F44+F68+F92+F116</f>
+        <v>246470151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="1">
-        <f>POWER(2,A23/24)*$B$2</f>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1">
+        <f>POWER(2,A23/24)*$D$2</f>
         <v>100.87044475251383</v>
       </c>
-      <c r="C23">
-        <v>2900403.0757362102</v>
-      </c>
-      <c r="D23">
-        <v>2900403</v>
-      </c>
       <c r="E23">
-        <v>2558157</v>
-      </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12998213</v>
+      </c>
+      <c r="F23">
+        <v>32188457</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23">
+        <f>E21+E45+E69+E93+E117</f>
+        <v>132620919</v>
+      </c>
+      <c r="I23">
+        <f>F21+F45+F69+F93+F117</f>
+        <v>197818736</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="1">
-        <f>POWER(2,A24/24)*$B$2</f>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24" s="1">
+        <f>POWER(2,A24/24)*$D$2</f>
         <v>103.82617439498628</v>
       </c>
-      <c r="C24">
-        <v>3226545.7644144902</v>
-      </c>
-      <c r="D24">
-        <v>3226546</v>
-      </c>
       <c r="E24">
-        <v>3200097</v>
-      </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40885144</v>
+      </c>
+      <c r="F24">
+        <v>7753663</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24">
+        <f>E22+E46+E70+E94+E118</f>
+        <v>85077402</v>
+      </c>
+      <c r="I24">
+        <f>F22+F46+F70+F94+F118</f>
+        <v>185517540</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="1">
-        <f>POWER(2,A25/24)*$B$2</f>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>23</v>
+      </c>
+      <c r="D25" s="1">
+        <f>POWER(2,A25/24)*$D$2</f>
         <v>106.86851352689665</v>
       </c>
-      <c r="C25">
-        <v>3502440.5397646101</v>
-      </c>
-      <c r="D25">
-        <v>3502441</v>
-      </c>
       <c r="E25">
-        <v>2992974</v>
-      </c>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44642417</v>
+      </c>
+      <c r="F25">
+        <v>8563453</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25">
+        <f>E23+E47+E71+E95+E119</f>
+        <v>199044320</v>
+      </c>
+      <c r="I25">
+        <f>F23+F47+F71+F95+F119</f>
+        <v>233358029</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="1">
-        <f>POWER(2,A26/24)*$B$2</f>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <f>POWER(2,A26/24)*$D$2</f>
         <v>110</v>
       </c>
-      <c r="C26">
-        <v>3691898.6899579</v>
-      </c>
-      <c r="D26">
-        <v>3691899</v>
-      </c>
       <c r="E26">
-        <v>3072304</v>
-      </c>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6359885</v>
+      </c>
+      <c r="F26">
+        <v>2547196</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26">
+        <f>E24+E48+E72+E96+E120</f>
+        <v>285364491</v>
+      </c>
+      <c r="I26">
+        <f>F24+F48+F72+F96+F120</f>
+        <v>300143718</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="1">
-        <f>POWER(2,A27/24)*$B$2</f>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <f>POWER(2,A27/24)*$D$2</f>
         <v>113.22324603078413</v>
       </c>
-      <c r="C27">
-        <v>3766877.0830696402</v>
-      </c>
-      <c r="D27">
-        <v>3766877</v>
-      </c>
       <c r="E27">
-        <v>2133627</v>
-      </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49420374</v>
+      </c>
+      <c r="F27">
+        <v>34621351</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27">
+        <f>E25+E49+E73+E97+E121</f>
+        <v>473343831</v>
+      </c>
+      <c r="I27">
+        <f>F25+F49+F73+F97+F121</f>
+        <v>298052929</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="1">
-        <f>POWER(2,A28/24)*$B$2</f>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <f>POWER(2,A28/24)*$D$2</f>
         <v>116.54094037952245</v>
       </c>
-      <c r="C28">
-        <v>3708644.8528331202</v>
-      </c>
-      <c r="D28">
-        <v>3708645</v>
-      </c>
       <c r="E28">
-        <v>927049</v>
-      </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52662969</v>
+      </c>
+      <c r="F28">
+        <v>8224703</v>
+      </c>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="1">
-        <f>POWER(2,A29/24)*$B$2</f>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1">
+        <f>POWER(2,A29/24)*$D$2</f>
         <v>119.95585059317834</v>
       </c>
-      <c r="C29">
-        <v>3510707.4328202098</v>
-      </c>
-      <c r="D29">
-        <v>3510707</v>
-      </c>
       <c r="E29">
-        <v>526340</v>
-      </c>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13753673</v>
+      </c>
+      <c r="F29">
+        <v>44149925</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="1">
-        <f>POWER(2,A30/24)*$B$2</f>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1">
+        <f>POWER(2,A30/24)*$D$2</f>
         <v>123.47082531403103</v>
       </c>
-      <c r="C30">
-        <v>3184235.96205498</v>
-      </c>
-      <c r="D30">
-        <v>3184236</v>
-      </c>
       <c r="E30">
-        <v>1854003</v>
-      </c>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39459673</v>
+      </c>
+      <c r="F30">
+        <v>37389086</v>
+      </c>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="1">
-        <f>POWER(2,A31/24)*$B$2</f>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1">
+        <f>POWER(2,A31/24)*$D$2</f>
         <v>127.08879665595002</v>
       </c>
-      <c r="C31">
-        <v>2768319.8704197002</v>
-      </c>
-      <c r="D31">
-        <v>2768320</v>
-      </c>
       <c r="E31">
-        <v>2832989</v>
-      </c>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69957201</v>
+      </c>
+      <c r="F31">
+        <v>44254989</v>
+      </c>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="1">
-        <f>POWER(2,A32/24)*$B$2</f>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1">
+        <f>POWER(2,A32/24)*$D$2</f>
         <v>130.81278265029931</v>
       </c>
-      <c r="C32">
-        <v>2349576.4052828001</v>
-      </c>
-      <c r="D32">
-        <v>2349576</v>
-      </c>
       <c r="E32">
-        <v>4196890</v>
-      </c>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66454999</v>
+      </c>
+      <c r="F32">
+        <v>53385132</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="1">
-        <f>POWER(2,A33/24)*$B$2</f>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33" s="1">
+        <f>POWER(2,A33/24)*$D$2</f>
         <v>134.64588976351209</v>
       </c>
-      <c r="C33">
-        <v>2084756.2185851999</v>
-      </c>
-      <c r="D33">
-        <v>2084756</v>
-      </c>
       <c r="E33">
-        <v>5321011</v>
-      </c>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34457501</v>
+      </c>
+      <c r="F33">
+        <v>30596053</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="1">
-        <f>POWER(2,A34/24)*$B$2</f>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1">
+        <f>POWER(2,A34/24)*$D$2</f>
         <v>138.59131548843604</v>
       </c>
-      <c r="C34">
-        <v>2144796.33922265</v>
-      </c>
-      <c r="D34">
-        <v>2144796</v>
-      </c>
       <c r="E34">
-        <v>5451617</v>
-      </c>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14348583</v>
+      </c>
+      <c r="F34">
+        <v>65782735</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="1">
-        <f>POWER(2,A35/24)*$B$2</f>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>9</v>
+      </c>
+      <c r="D35" s="1">
+        <f>POWER(2,A35/24)*$D$2</f>
         <v>142.65235101161107</v>
       </c>
-      <c r="C35">
-        <v>2525131.8319275002</v>
-      </c>
-      <c r="D35">
-        <v>2525132</v>
-      </c>
       <c r="E35">
-        <v>5432304</v>
-      </c>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62510773</v>
+      </c>
+      <c r="F35">
+        <v>39857674</v>
+      </c>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="1">
-        <f>POWER(2,A36/24)*$B$2</f>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1">
+        <f>POWER(2,A36/24)*$D$2</f>
         <v>146.83238395870379</v>
       </c>
-      <c r="C36">
-        <v>3047098.16662637</v>
-      </c>
-      <c r="D36">
-        <v>3047098</v>
-      </c>
       <c r="E36">
-        <v>5668133</v>
-      </c>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>108170505</v>
+      </c>
+      <c r="F36">
+        <v>109328950</v>
+      </c>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="1">
-        <f>POWER(2,A37/24)*$B$2</f>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>11</v>
+      </c>
+      <c r="D37" s="1">
+        <f>POWER(2,A37/24)*$D$2</f>
         <v>151.13490122038979</v>
       </c>
-      <c r="C37">
-        <v>3532166.4563779398</v>
-      </c>
-      <c r="D37">
-        <v>3532166</v>
-      </c>
       <c r="E37">
-        <v>5653323</v>
-      </c>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153210337</v>
+      </c>
+      <c r="F37">
+        <v>3070756</v>
+      </c>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" s="1">
-        <f>POWER(2,A38/24)*$B$2</f>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>12</v>
+      </c>
+      <c r="D38" s="1">
+        <f>POWER(2,A38/24)*$D$2</f>
         <v>155.56349186104043</v>
       </c>
-      <c r="C38">
-        <v>3853739.1187019902</v>
-      </c>
-      <c r="D38">
-        <v>3853739</v>
-      </c>
       <c r="E38">
-        <v>3935771</v>
-      </c>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>211623865</v>
+      </c>
+      <c r="F38">
+        <v>160908933</v>
+      </c>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="1">
-        <f>POWER(2,A39/24)*$B$2</f>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>13</v>
+      </c>
+      <c r="D39" s="1">
+        <f>POWER(2,A39/24)*$D$2</f>
         <v>160.1218501126406</v>
       </c>
-      <c r="C39">
-        <v>3929108.7144194399</v>
-      </c>
-      <c r="D39">
-        <v>3929109</v>
-      </c>
       <c r="E39">
-        <v>3196625</v>
-      </c>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>330914397</v>
+      </c>
+      <c r="F39">
+        <v>234660409</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" s="1">
-        <f>POWER(2,A40/24)*$B$2</f>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>14</v>
+      </c>
+      <c r="D40" s="1">
+        <f>POWER(2,A40/24)*$D$2</f>
         <v>164.81377845643493</v>
       </c>
-      <c r="C40">
-        <v>3718661.4672819301</v>
-      </c>
-      <c r="D40">
-        <v>3718661</v>
-      </c>
       <c r="E40">
-        <v>1358435</v>
-      </c>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>871294167</v>
+      </c>
+      <c r="F40">
+        <v>116760588</v>
+      </c>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" s="1">
-        <f>POWER(2,A41/24)*$B$2</f>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>15</v>
+      </c>
+      <c r="D41" s="1">
+        <f>POWER(2,A41/24)*$D$2</f>
         <v>169.64319079487348</v>
       </c>
-      <c r="C41">
-        <v>3239841.65057754</v>
-      </c>
-      <c r="D41">
-        <v>3239842</v>
-      </c>
       <c r="E41">
-        <v>758765</v>
-      </c>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1111282611</v>
+      </c>
+      <c r="F41">
+        <v>1373759311</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" s="1">
-        <f>POWER(2,A42/24)*$B$2</f>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>16</v>
+      </c>
+      <c r="D42" s="1">
+        <f>POWER(2,A42/24)*$D$2</f>
         <v>174.61411571650194</v>
       </c>
-      <c r="C42">
-        <v>2605748.2987956</v>
-      </c>
-      <c r="D42">
-        <v>2605748</v>
-      </c>
       <c r="E42">
-        <v>3263081</v>
-      </c>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>328248045</v>
+      </c>
+      <c r="F42">
+        <v>566479719</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" s="1">
-        <f>POWER(2,A43/24)*$B$2</f>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>17</v>
+      </c>
+      <c r="D43" s="1">
+        <f>POWER(2,A43/24)*$D$2</f>
         <v>179.73069985652094</v>
       </c>
-      <c r="C43">
-        <v>2116650.69927298</v>
-      </c>
-      <c r="D43">
-        <v>2116651</v>
-      </c>
       <c r="E43">
-        <v>3940653</v>
-      </c>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>184738886</v>
+      </c>
+      <c r="F43">
+        <v>298032423</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="1">
-        <f>POWER(2,A44/24)*$B$2</f>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>18</v>
+      </c>
+      <c r="D44" s="1">
+        <f>POWER(2,A44/24)*$D$2</f>
         <v>184.9972113558172</v>
       </c>
-      <c r="C44">
-        <v>2224384.7031350499</v>
-      </c>
-      <c r="D44">
-        <v>2224385</v>
-      </c>
       <c r="E44">
-        <v>5019914</v>
-      </c>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>114308873</v>
+      </c>
+      <c r="F44">
+        <v>190679935</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" s="1">
-        <f>POWER(2,A45/24)*$B$2</f>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>19</v>
+      </c>
+      <c r="D45" s="1">
+        <f>POWER(2,A45/24)*$D$2</f>
         <v>190.41804342135148</v>
       </c>
-      <c r="C45">
-        <v>2886342.2300742399</v>
-      </c>
-      <c r="D45">
-        <v>2886342</v>
-      </c>
       <c r="E45">
-        <v>6372503</v>
-      </c>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>61258585</v>
+      </c>
+      <c r="F45">
+        <v>125235629</v>
+      </c>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" s="1">
-        <f>POWER(2,A46/24)*$B$2</f>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+      <c r="D46" s="1">
+        <f>POWER(2,A46/24)*$D$2</f>
         <v>195.99771799087461</v>
       </c>
-      <c r="C46">
-        <v>3624867.6172076799</v>
-      </c>
-      <c r="D46">
-        <v>3624868</v>
-      </c>
       <c r="E46">
-        <v>6070291</v>
-      </c>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14859518</v>
+      </c>
+      <c r="F46">
+        <v>103557760</v>
+      </c>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" s="1">
-        <f>POWER(2,A47/24)*$B$2</f>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>21</v>
+      </c>
+      <c r="D47" s="1">
+        <f>POWER(2,A47/24)*$D$2</f>
         <v>201.74088950502767</v>
       </c>
-      <c r="C47">
-        <v>4094047.7645781599</v>
-      </c>
-      <c r="D47">
-        <v>4094048</v>
-      </c>
       <c r="E47">
-        <v>4916925</v>
-      </c>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26800049</v>
+      </c>
+      <c r="F47">
+        <v>79743587</v>
+      </c>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" s="1">
-        <f>POWER(2,A48/24)*$B$2</f>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>22</v>
+      </c>
+      <c r="D48" s="1">
+        <f>POWER(2,A48/24)*$D$2</f>
         <v>207.65234878997256</v>
       </c>
-      <c r="C48">
-        <v>4106017.68244721</v>
-      </c>
-      <c r="D48">
-        <v>4106018</v>
-      </c>
       <c r="E48">
-        <v>2681941</v>
-      </c>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46486668</v>
+      </c>
+      <c r="F48">
+        <v>55837214</v>
+      </c>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" s="1">
-        <f>POWER(2,A49/24)*$B$2</f>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>23</v>
+      </c>
+      <c r="D49" s="1">
+        <f>POWER(2,A49/24)*$D$2</f>
         <v>213.73702705379327</v>
       </c>
-      <c r="C49">
-        <v>3609183.0974469399</v>
-      </c>
-      <c r="D49">
-        <v>3609183</v>
-      </c>
       <c r="E49">
-        <v>2798982</v>
-      </c>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37814946</v>
+      </c>
+      <c r="F49">
+        <v>58395038</v>
+      </c>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" s="1">
-        <f>POWER(2,A50/24)*$B$2</f>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <f>POWER(2,A50/24)*$D$2</f>
         <v>220</v>
       </c>
-      <c r="C50">
-        <v>2749107.0527415602</v>
-      </c>
-      <c r="D50">
-        <v>2749107</v>
-      </c>
       <c r="E50">
-        <v>2735385</v>
-      </c>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8342953</v>
+      </c>
+      <c r="F50">
+        <v>40557338</v>
+      </c>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" s="1">
-        <f>POWER(2,A51/24)*$B$2</f>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <f>POWER(2,A51/24)*$D$2</f>
         <v>226.44649206156822</v>
       </c>
-      <c r="C51">
-        <v>2099095.7463513198</v>
-      </c>
-      <c r="D51">
-        <v>2099096</v>
-      </c>
       <c r="E51">
-        <v>3745462</v>
-      </c>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26485195</v>
+      </c>
+      <c r="F51">
+        <v>17194928</v>
+      </c>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" s="1">
-        <f>POWER(2,A52/24)*$B$2</f>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1">
+        <f>POWER(2,A52/24)*$D$2</f>
         <v>233.08188075904496</v>
       </c>
-      <c r="C52">
-        <v>2542374.8932884601</v>
-      </c>
-      <c r="D52">
-        <v>2542375</v>
-      </c>
       <c r="E52">
-        <v>4280316</v>
-      </c>
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22703339</v>
+      </c>
+      <c r="F52">
+        <v>18573872</v>
+      </c>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" s="1">
-        <f>POWER(2,A53/24)*$B$2</f>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53" s="1">
+        <f>POWER(2,A53/24)*$D$2</f>
         <v>239.91170118635668</v>
       </c>
-      <c r="C53">
-        <v>3587723.9327272899</v>
-      </c>
-      <c r="D53">
-        <v>3587724</v>
-      </c>
       <c r="E53">
-        <v>5499640</v>
-      </c>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12341278</v>
+      </c>
+      <c r="F53">
+        <v>32085299</v>
+      </c>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" s="1">
-        <f>POWER(2,A54/24)*$B$2</f>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54" s="1">
+        <f>POWER(2,A54/24)*$D$2</f>
         <v>246.94165062806201</v>
       </c>
-      <c r="C54">
-        <v>4338379.9613073897</v>
-      </c>
-      <c r="D54">
-        <v>4338380</v>
-      </c>
       <c r="E54">
-        <v>4301641</v>
-      </c>
-      <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20867531</v>
+      </c>
+      <c r="F54">
+        <v>25369528</v>
+      </c>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" s="1">
-        <f>POWER(2,A55/24)*$B$2</f>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55" s="1">
+        <f>POWER(2,A55/24)*$D$2</f>
         <v>254.1775933119001</v>
       </c>
-      <c r="C55">
-        <v>4359830.9636817602</v>
-      </c>
-      <c r="D55">
-        <v>4359831</v>
-      </c>
       <c r="E55">
-        <v>4184958</v>
-      </c>
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11145697</v>
+      </c>
+      <c r="F55">
+        <v>16156628</v>
+      </c>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" s="1">
-        <f>POWER(2,A56/24)*$B$2</f>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>6</v>
+      </c>
+      <c r="D56" s="1">
+        <f>POWER(2,A56/24)*$D$2</f>
         <v>261.62556530059862</v>
       </c>
-      <c r="C56">
-        <v>3563335.55215722</v>
-      </c>
-      <c r="D56">
-        <v>3563336</v>
-      </c>
       <c r="E56">
-        <v>2073496</v>
-      </c>
-      <c r="F56" s="2"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15309507</v>
+      </c>
+      <c r="F56">
+        <v>12076266</v>
+      </c>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" s="1">
-        <f>POWER(2,A57/24)*$B$2</f>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>7</v>
+      </c>
+      <c r="D57" s="1">
+        <f>POWER(2,A57/24)*$D$2</f>
         <v>269.29177952702412</v>
       </c>
-      <c r="C57">
-        <v>2381404.7133538099</v>
-      </c>
-      <c r="D57">
-        <v>2381405</v>
-      </c>
       <c r="E57">
-        <v>2721137</v>
-      </c>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16238042</v>
+      </c>
+      <c r="F57">
+        <v>12226074</v>
+      </c>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" s="1">
-        <f>POWER(2,A58/24)*$B$2</f>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>8</v>
+      </c>
+      <c r="D58" s="1">
+        <f>POWER(2,A58/24)*$D$2</f>
         <v>277.18263097687213</v>
       </c>
-      <c r="C58">
-        <v>2377315.04031647</v>
-      </c>
-      <c r="D58">
-        <v>2377315</v>
-      </c>
       <c r="E58">
-        <v>3906105</v>
-      </c>
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6824736</v>
+      </c>
+      <c r="F58">
+        <v>13528140</v>
+      </c>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" s="1">
-        <f>POWER(2,A59/24)*$B$2</f>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>9</v>
+      </c>
+      <c r="D59" s="1">
+        <f>POWER(2,A59/24)*$D$2</f>
         <v>285.30470202322215</v>
       </c>
-      <c r="C59">
-        <v>3739731.90547544</v>
-      </c>
-      <c r="D59">
-        <v>3739732</v>
-      </c>
       <c r="E59">
-        <v>4635318</v>
-      </c>
-      <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13932928</v>
+      </c>
+      <c r="F59">
+        <v>15771805</v>
+      </c>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" s="1">
-        <f>POWER(2,A60/24)*$B$2</f>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>10</v>
+      </c>
+      <c r="D60" s="1">
+        <f>POWER(2,A60/24)*$D$2</f>
         <v>293.66476791740752</v>
       </c>
-      <c r="C60">
-        <v>4726990.9829086298</v>
-      </c>
-      <c r="D60">
-        <v>4726991</v>
-      </c>
       <c r="E60">
-        <v>4686365</v>
-      </c>
-      <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18153942</v>
+      </c>
+      <c r="F60">
+        <v>16139943</v>
+      </c>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" s="1">
-        <f>POWER(2,A61/24)*$B$2</f>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>11</v>
+      </c>
+      <c r="D61" s="1">
+        <f>POWER(2,A61/24)*$D$2</f>
         <v>302.26980244077964</v>
       </c>
-      <c r="C61">
-        <v>4550223.65507368</v>
-      </c>
-      <c r="D61">
-        <v>4550224</v>
-      </c>
       <c r="E61">
-        <v>4509357</v>
-      </c>
-      <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15629767</v>
+      </c>
+      <c r="F61">
+        <v>14063691</v>
+      </c>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" s="1">
-        <f>POWER(2,A62/24)*$B$2</f>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>12</v>
+      </c>
+      <c r="D62" s="1">
+        <f>POWER(2,A62/24)*$D$2</f>
         <v>311.12698372208092</v>
       </c>
-      <c r="C62">
-        <v>3200966.9530222602</v>
-      </c>
-      <c r="D62">
-        <v>3200967</v>
-      </c>
       <c r="E62">
-        <v>1831979</v>
-      </c>
-      <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10290520</v>
+      </c>
+      <c r="F62">
+        <v>17936170</v>
+      </c>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" s="1">
-        <f>POWER(2,A63/24)*$B$2</f>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>13</v>
+      </c>
+      <c r="D63" s="1">
+        <f>POWER(2,A63/24)*$D$2</f>
         <v>320.24370022528115</v>
       </c>
-      <c r="C63">
-        <v>2170443.4507008302</v>
-      </c>
-      <c r="D63">
-        <v>2170443</v>
-      </c>
       <c r="E63">
-        <v>3788533</v>
-      </c>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5833205</v>
+      </c>
+      <c r="F63">
+        <v>11569764</v>
+      </c>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" s="1">
-        <f>POWER(2,A64/24)*$B$2</f>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>14</v>
+      </c>
+      <c r="D64" s="1">
+        <f>POWER(2,A64/24)*$D$2</f>
         <v>329.62755691286998</v>
       </c>
-      <c r="C64">
-        <v>3683697.79325965</v>
-      </c>
-      <c r="D64">
-        <v>3683698</v>
-      </c>
       <c r="E64">
-        <v>4259530</v>
-      </c>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4047158</v>
+      </c>
+      <c r="F64">
+        <v>19263228</v>
+      </c>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" s="1">
-        <f>POWER(2,A65/24)*$B$2</f>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>15</v>
+      </c>
+      <c r="D65" s="1">
+        <f>POWER(2,A65/24)*$D$2</f>
         <v>339.28638158974695</v>
       </c>
-      <c r="C65">
-        <v>5120850.2218346503</v>
-      </c>
-      <c r="D65">
-        <v>5120850</v>
-      </c>
       <c r="E65">
-        <v>6229045</v>
-      </c>
-      <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4412715</v>
+      </c>
+      <c r="F65">
+        <v>10185541</v>
+      </c>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" s="1">
-        <f>POWER(2,A66/24)*$B$2</f>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>16</v>
+      </c>
+      <c r="D66" s="1">
+        <f>POWER(2,A66/24)*$D$2</f>
         <v>349.22823143300388</v>
       </c>
-      <c r="C66">
-        <v>4873258.6729210401</v>
-      </c>
-      <c r="D66">
-        <v>4873259</v>
-      </c>
       <c r="E66">
-        <v>4739278</v>
-      </c>
-      <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10675893</v>
+      </c>
+      <c r="F66">
+        <v>24473405</v>
+      </c>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" s="1">
-        <f>POWER(2,A67/24)*$B$2</f>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>17</v>
+      </c>
+      <c r="D67" s="1">
+        <f>POWER(2,A67/24)*$D$2</f>
         <v>359.46139971304194</v>
       </c>
-      <c r="C67">
-        <v>2982919.4834788502</v>
-      </c>
-      <c r="D67">
-        <v>2982919</v>
-      </c>
       <c r="E67">
-        <v>3038223</v>
-      </c>
-      <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25369855</v>
+      </c>
+      <c r="F67">
+        <v>26830901</v>
+      </c>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68" s="1">
-        <f>POWER(2,A68/24)*$B$2</f>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>18</v>
+      </c>
+      <c r="D68" s="1">
+        <f>POWER(2,A68/24)*$D$2</f>
         <v>369.99442271163446</v>
       </c>
-      <c r="C68">
-        <v>2678054.4023011699</v>
-      </c>
-      <c r="D68">
-        <v>2678054</v>
-      </c>
       <c r="E68">
-        <v>3483616</v>
-      </c>
-      <c r="F68" s="2"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44276228</v>
+      </c>
+      <c r="F68">
+        <v>23316824</v>
+      </c>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69" s="1">
-        <f>POWER(2,A69/24)*$B$2</f>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>19</v>
+      </c>
+      <c r="D69" s="1">
+        <f>POWER(2,A69/24)*$D$2</f>
         <v>380.83608684270291</v>
       </c>
-      <c r="C69">
-        <v>5028320.5224220799</v>
-      </c>
-      <c r="D69">
-        <v>5028321</v>
-      </c>
       <c r="E69">
-        <v>5738066</v>
-      </c>
-      <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47752439</v>
+      </c>
+      <c r="F69">
+        <v>21988739</v>
+      </c>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70" s="1">
-        <f>POWER(2,A70/24)*$B$2</f>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>20</v>
+      </c>
+      <c r="D70" s="1">
+        <f>POWER(2,A70/24)*$D$2</f>
         <v>391.99543598174927</v>
       </c>
-      <c r="C70">
-        <v>5718610.1494128201</v>
-      </c>
-      <c r="D70">
-        <v>5718610</v>
-      </c>
       <c r="E70">
-        <v>5398325</v>
-      </c>
-      <c r="F70" s="2"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5303437</v>
+      </c>
+      <c r="F70">
+        <v>48340485</v>
+      </c>
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71" s="1">
-        <f>POWER(2,A71/24)*$B$2</f>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>21</v>
+      </c>
+      <c r="D71" s="1">
+        <f>POWER(2,A71/24)*$D$2</f>
         <v>403.48177901005533</v>
       </c>
-      <c r="C71">
-        <v>3761687.05265737</v>
-      </c>
-      <c r="D71">
-        <v>3761687</v>
-      </c>
       <c r="E71">
-        <v>3123238</v>
-      </c>
-      <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>132523309</v>
+      </c>
+      <c r="F71">
+        <v>110731005</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
-      <c r="B72" s="1">
-        <f>POWER(2,A72/24)*$B$2</f>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>22</v>
+      </c>
+      <c r="D72" s="1">
+        <f>POWER(2,A72/24)*$D$2</f>
         <v>415.30469757994501</v>
       </c>
-      <c r="C72">
-        <v>2637853.0958494502</v>
-      </c>
-      <c r="D72">
-        <v>2637853</v>
-      </c>
       <c r="E72">
-        <v>4239542</v>
-      </c>
-      <c r="F72" s="2"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>166855690</v>
+      </c>
+      <c r="F72">
+        <v>207389008</v>
+      </c>
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
-      <c r="B73" s="1">
-        <f>POWER(2,A73/24)*$B$2</f>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>23</v>
+      </c>
+      <c r="D73" s="1">
+        <f>POWER(2,A73/24)*$D$2</f>
         <v>427.47405410758665</v>
       </c>
-      <c r="C73">
-        <v>5633899.07968977</v>
-      </c>
-      <c r="D73">
-        <v>5633899</v>
-      </c>
       <c r="E73">
-        <v>4420691</v>
-      </c>
-      <c r="F73" s="2"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>343282355</v>
+      </c>
+      <c r="F73">
+        <v>201430141</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="8"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
-      <c r="B74" s="1">
-        <f>POWER(2,A74/24)*$B$2</f>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1">
+        <f>POWER(2,A74/24)*$D$2</f>
         <v>440</v>
       </c>
-      <c r="C74">
-        <v>6235066.2530859699</v>
-      </c>
-      <c r="D74">
-        <v>6235066</v>
-      </c>
       <c r="E74">
-        <v>6576882</v>
-      </c>
-      <c r="F74" s="2"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10198500</v>
+      </c>
+      <c r="F74">
+        <v>146269673</v>
+      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="8"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
-      <c r="B75" s="1">
-        <f>POWER(2,A75/24)*$B$2</f>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1">
+        <f>POWER(2,A75/24)*$D$2</f>
         <v>452.89298412313644</v>
       </c>
-      <c r="C75">
-        <v>3287405.6853858102</v>
-      </c>
-      <c r="D75">
-        <v>3287406</v>
-      </c>
       <c r="E75">
-        <v>3078181</v>
-      </c>
-      <c r="F75" s="2"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>59860533</v>
+      </c>
+      <c r="F75">
+        <v>87751625</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="9"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
-      <c r="B76" s="1">
-        <f>POWER(2,A76/24)*$B$2</f>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76" s="1">
+        <f>POWER(2,A76/24)*$D$2</f>
         <v>466.16376151808993</v>
       </c>
-      <c r="C76">
-        <v>4101395.9689351199</v>
-      </c>
-      <c r="D76">
-        <v>4101396</v>
-      </c>
       <c r="E76">
-        <v>2884780</v>
-      </c>
-      <c r="F76" s="2"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>54458946</v>
+      </c>
+      <c r="F76">
+        <v>4169614</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
-      <c r="B77" s="1">
-        <f>POWER(2,A77/24)*$B$2</f>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77" s="1">
+        <f>POWER(2,A77/24)*$D$2</f>
         <v>479.82340237271336</v>
       </c>
-      <c r="C77">
-        <v>7218702.3028456001</v>
-      </c>
-      <c r="D77">
-        <v>7218702</v>
-      </c>
       <c r="E77">
-        <v>9768357</v>
-      </c>
-      <c r="F77" s="2"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36321674</v>
+      </c>
+      <c r="F77">
+        <v>58290251</v>
+      </c>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
-      <c r="B78" s="1">
-        <f>POWER(2,A78/24)*$B$2</f>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78" s="1">
+        <f>POWER(2,A78/24)*$D$2</f>
         <v>493.88330125612396</v>
       </c>
-      <c r="C78">
-        <v>5410162.33475425</v>
-      </c>
-      <c r="D78">
-        <v>5410162</v>
-      </c>
       <c r="E78">
-        <v>5757358</v>
-      </c>
-      <c r="F78" s="2"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25153314</v>
+      </c>
+      <c r="F78">
+        <v>17407529</v>
+      </c>
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
-      <c r="B79" s="1">
-        <f>POWER(2,A79/24)*$B$2</f>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+      <c r="D79" s="1">
+        <f>POWER(2,A79/24)*$D$2</f>
         <v>508.35518662380019</v>
       </c>
-      <c r="C79">
-        <v>3074535.7116245902</v>
-      </c>
-      <c r="D79">
-        <v>3074536</v>
-      </c>
       <c r="E79">
-        <v>4005171</v>
-      </c>
-      <c r="F79" s="2"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22236062</v>
+      </c>
+      <c r="F79">
+        <v>36797028</v>
+      </c>
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
-      <c r="B80" s="1">
-        <f>POWER(2,A80/24)*$B$2</f>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>6</v>
+      </c>
+      <c r="D80" s="1">
+        <f>POWER(2,A80/24)*$D$2</f>
         <v>523.25113060119713</v>
       </c>
-      <c r="C80">
-        <v>7839976.88857147</v>
-      </c>
-      <c r="D80">
-        <v>7839977</v>
-      </c>
       <c r="E80">
-        <v>8550137</v>
-      </c>
-      <c r="F80" s="2"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23336943</v>
+      </c>
+      <c r="F80">
+        <v>28206824</v>
+      </c>
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
-      <c r="B81" s="1">
-        <f>POWER(2,A81/24)*$B$2</f>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>7</v>
+      </c>
+      <c r="D81" s="1">
+        <f>POWER(2,A81/24)*$D$2</f>
         <v>538.58355905404824</v>
       </c>
-      <c r="C81">
-        <v>6796031.71180043</v>
-      </c>
-      <c r="D81">
-        <v>6796032</v>
-      </c>
       <c r="E81">
-        <v>7722081</v>
-      </c>
-      <c r="F81" s="2"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21196667</v>
+      </c>
+      <c r="F81">
+        <v>25206742</v>
+      </c>
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
-      <c r="B82" s="1">
-        <f>POWER(2,A82/24)*$B$2</f>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>8</v>
+      </c>
+      <c r="D82" s="1">
+        <f>POWER(2,A82/24)*$D$2</f>
         <v>554.36526195374415</v>
       </c>
-      <c r="C82">
-        <v>3183761.2299105199</v>
-      </c>
-      <c r="D82">
-        <v>3183761</v>
-      </c>
       <c r="E82">
-        <v>4090617</v>
-      </c>
-      <c r="F82" s="2"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7798189</v>
+      </c>
+      <c r="F82">
+        <v>25717781</v>
+      </c>
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
-      <c r="B83" s="1">
-        <f>POWER(2,A83/24)*$B$2</f>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>9</v>
+      </c>
+      <c r="D83" s="1">
+        <f>POWER(2,A83/24)*$D$2</f>
         <v>570.6094040464443</v>
       </c>
-      <c r="C83">
-        <v>9270130.5120487101</v>
-      </c>
-      <c r="D83">
-        <v>9270131</v>
-      </c>
       <c r="E83">
-        <v>5930185</v>
-      </c>
-      <c r="F83" s="2"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12792948</v>
+      </c>
+      <c r="F83">
+        <v>25744902</v>
+      </c>
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
-      <c r="B84" s="1">
-        <f>POWER(2,A84/24)*$B$2</f>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>10</v>
+      </c>
+      <c r="D84" s="1">
+        <f>POWER(2,A84/24)*$D$2</f>
         <v>587.32953583481492</v>
       </c>
-      <c r="C84">
-        <v>7087884.9671527101</v>
-      </c>
-      <c r="D84">
-        <v>7087885</v>
-      </c>
       <c r="E84">
-        <v>7167719</v>
-      </c>
-      <c r="F84" s="2"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11678242</v>
+      </c>
+      <c r="F84">
+        <v>14989031</v>
+      </c>
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
-      <c r="B85" s="1">
-        <f>POWER(2,A85/24)*$B$2</f>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>11</v>
+      </c>
+      <c r="D85" s="1">
+        <f>POWER(2,A85/24)*$D$2</f>
         <v>604.53960488155928</v>
       </c>
-      <c r="C85">
-        <v>5278472.5660315398</v>
-      </c>
-      <c r="D85">
-        <v>5278473</v>
-      </c>
       <c r="E85">
-        <v>4171151</v>
-      </c>
-      <c r="F85" s="2"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12748865</v>
+      </c>
+      <c r="F85">
+        <v>15962162</v>
+      </c>
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
-      <c r="B86" s="1">
-        <f>POWER(2,A86/24)*$B$2</f>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>12</v>
+      </c>
+      <c r="D86" s="1">
+        <f>POWER(2,A86/24)*$D$2</f>
         <v>622.25396744416173</v>
       </c>
-      <c r="C86">
-        <v>11667982.3756849</v>
-      </c>
-      <c r="D86">
-        <v>11667982</v>
-      </c>
       <c r="E86">
-        <v>11931580</v>
-      </c>
-      <c r="F86" s="2"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2322911</v>
+      </c>
+      <c r="F86">
+        <v>17649819</v>
+      </c>
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
-      <c r="B87" s="1">
-        <f>POWER(2,A87/24)*$B$2</f>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>13</v>
+      </c>
+      <c r="D87" s="1">
+        <f>POWER(2,A87/24)*$D$2</f>
         <v>640.4874004505624</v>
       </c>
-      <c r="C87">
-        <v>4719364.2432929203</v>
-      </c>
-      <c r="D87">
-        <v>4719364</v>
-      </c>
       <c r="E87">
-        <v>9233605</v>
-      </c>
-      <c r="F87" s="2"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7516814</v>
+      </c>
+      <c r="F87">
+        <v>8049615</v>
+      </c>
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
-      <c r="B88" s="1">
-        <f>POWER(2,A88/24)*$B$2</f>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>14</v>
+      </c>
+      <c r="D88" s="1">
+        <f>POWER(2,A88/24)*$D$2</f>
         <v>659.25511382573984</v>
       </c>
-      <c r="C88">
-        <v>11472528.006004199</v>
-      </c>
-      <c r="D88">
-        <v>11472528</v>
-      </c>
       <c r="E88">
-        <v>4499357</v>
-      </c>
-      <c r="F88" s="2"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9906465</v>
+      </c>
+      <c r="F88">
+        <v>4174037</v>
+      </c>
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
-      <c r="B89" s="1">
-        <f>POWER(2,A89/24)*$B$2</f>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>15</v>
+      </c>
+      <c r="D89" s="1">
+        <f>POWER(2,A89/24)*$D$2</f>
         <v>678.57276317949402</v>
       </c>
-      <c r="C89">
-        <v>11854968.023884701</v>
-      </c>
-      <c r="D89">
-        <v>11854968</v>
-      </c>
       <c r="E89">
-        <v>15499573</v>
-      </c>
-      <c r="F89" s="2"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9374629</v>
+      </c>
+      <c r="F89">
+        <v>8303118</v>
+      </c>
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
-      <c r="B90" s="1">
-        <f>POWER(2,A90/24)*$B$2</f>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>16</v>
+      </c>
+      <c r="D90" s="1">
+        <f>POWER(2,A90/24)*$D$2</f>
         <v>698.45646286600766</v>
       </c>
-      <c r="C90">
-        <v>8069772.7104187701</v>
-      </c>
-      <c r="D90">
-        <v>8069773</v>
-      </c>
       <c r="E90">
-        <v>6595978</v>
-      </c>
-      <c r="F90" s="2"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5804768</v>
+      </c>
+      <c r="F90">
+        <v>16705187</v>
+      </c>
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
-      <c r="B91" s="1">
-        <f>POWER(2,A91/24)*$B$2</f>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>17</v>
+      </c>
+      <c r="D91" s="1">
+        <f>POWER(2,A91/24)*$D$2</f>
         <v>718.92279942608377</v>
       </c>
-      <c r="C91">
-        <v>18475216.665810902</v>
-      </c>
-      <c r="D91">
-        <v>18475217</v>
-      </c>
       <c r="E91">
-        <v>16021357</v>
-      </c>
-      <c r="F91" s="2"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5446996</v>
+      </c>
+      <c r="F91">
+        <v>8007178</v>
+      </c>
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
-      <c r="B92" s="1">
-        <f>POWER(2,A92/24)*$B$2</f>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>18</v>
+      </c>
+      <c r="D92" s="1">
+        <f>POWER(2,A92/24)*$D$2</f>
         <v>739.9888454232688</v>
       </c>
-      <c r="C92">
-        <v>4542188.3072570199</v>
-      </c>
-      <c r="D92">
-        <v>4542188</v>
-      </c>
       <c r="E92">
-        <v>14592538</v>
-      </c>
-      <c r="F92" s="2"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13861756</v>
+      </c>
+      <c r="F92">
+        <v>18163900</v>
+      </c>
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
-      <c r="B93" s="1">
-        <f>POWER(2,A93/24)*$B$2</f>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>19</v>
+      </c>
+      <c r="D93" s="1">
+        <f>POWER(2,A93/24)*$D$2</f>
         <v>761.67217368540582</v>
       </c>
-      <c r="C93">
-        <v>26081362.003023699</v>
-      </c>
-      <c r="D93">
-        <v>26081362</v>
-      </c>
       <c r="E93">
-        <v>19140806</v>
-      </c>
-      <c r="F93" s="2"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3312637</v>
+      </c>
+      <c r="F93">
+        <v>18478557</v>
+      </c>
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
-      <c r="B94" s="1">
-        <f>POWER(2,A94/24)*$B$2</f>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>20</v>
+      </c>
+      <c r="D94" s="1">
+        <f>POWER(2,A94/24)*$D$2</f>
         <v>783.99087196349865</v>
       </c>
-      <c r="C94">
-        <v>5839892.4606899498</v>
-      </c>
-      <c r="D94">
-        <v>5839892</v>
-      </c>
       <c r="E94">
-        <v>21704532</v>
-      </c>
-      <c r="F94" s="2"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16570089</v>
+      </c>
+      <c r="F94">
+        <v>21253259</v>
+      </c>
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
-      <c r="B95" s="1">
-        <f>POWER(2,A95/24)*$B$2</f>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>21</v>
+      </c>
+      <c r="D95" s="1">
+        <f>POWER(2,A95/24)*$D$2</f>
         <v>806.96355802011078</v>
       </c>
-      <c r="C95">
-        <v>41907969.162762202</v>
-      </c>
-      <c r="D95">
-        <v>41907969</v>
-      </c>
       <c r="E95">
-        <v>34456837</v>
-      </c>
-      <c r="F95" s="2"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21580278</v>
+      </c>
+      <c r="F95">
+        <v>4623925</v>
+      </c>
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
-      <c r="B96" s="1">
-        <f>POWER(2,A96/24)*$B$2</f>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>22</v>
+      </c>
+      <c r="D96" s="1">
+        <f>POWER(2,A96/24)*$D$2</f>
         <v>830.60939515989014</v>
       </c>
-      <c r="C96">
-        <v>10331084.5436021</v>
-      </c>
-      <c r="D96">
-        <v>10331085</v>
-      </c>
       <c r="E96">
-        <v>20885328</v>
-      </c>
-      <c r="F96" s="2"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25967103</v>
+      </c>
+      <c r="F96">
+        <v>26833137</v>
+      </c>
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
-      <c r="B97" s="1">
-        <f>POWER(2,A97/24)*$B$2</f>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>23</v>
+      </c>
+      <c r="D97" s="1">
+        <f>POWER(2,A97/24)*$D$2</f>
         <v>854.94810821517308</v>
       </c>
-      <c r="C97">
-        <v>123053315.269669</v>
-      </c>
-      <c r="D97">
-        <v>123053315</v>
-      </c>
       <c r="E97">
-        <v>20436835</v>
-      </c>
-      <c r="F97" s="2"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>42932194</v>
+      </c>
+      <c r="F97">
+        <v>27093511</v>
+      </c>
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
-      <c r="B98" s="1">
-        <f>POWER(2,A98/24)*$B$2</f>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98" s="1">
+        <f>POWER(2,A98/24)*$D$2</f>
         <v>880</v>
       </c>
-      <c r="C98">
-        <v>209186946.210473</v>
-      </c>
-      <c r="D98">
-        <v>209186946</v>
-      </c>
       <c r="E98">
-        <v>219889057</v>
-      </c>
-      <c r="F98" s="2"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>83772340</v>
+      </c>
+      <c r="F98">
+        <v>74629941</v>
+      </c>
+      <c r="G98" s="2"/>
+      <c r="H98" s="7"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
-      <c r="B99" s="1">
-        <f>POWER(2,A99/24)*$B$2</f>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" s="1">
+        <f>POWER(2,A99/24)*$D$2</f>
         <v>905.785968246273</v>
       </c>
-      <c r="C99">
-        <v>174059597.997284</v>
-      </c>
-      <c r="D99">
-        <v>174059598</v>
-      </c>
       <c r="E99">
-        <v>188294687</v>
-      </c>
-      <c r="F99" s="2"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1573608159</v>
+      </c>
+      <c r="F99">
+        <v>1381097830</v>
+      </c>
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
-      <c r="B100" s="1">
-        <f>POWER(2,A100/24)*$B$2</f>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100" s="1">
+        <f>POWER(2,A100/24)*$D$2</f>
         <v>932.32752303617951</v>
       </c>
-      <c r="C100">
-        <v>157944738.71489599</v>
-      </c>
-      <c r="D100">
-        <v>157944739</v>
-      </c>
       <c r="E100">
-        <v>179646049</v>
-      </c>
-      <c r="F100" s="2"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>92754479</v>
+      </c>
+      <c r="F100">
+        <v>24803970</v>
+      </c>
+      <c r="G100" s="2"/>
+      <c r="H100" s="8"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
-      <c r="B101" s="1">
-        <f>POWER(2,A101/24)*$B$2</f>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101" s="1">
+        <f>POWER(2,A101/24)*$D$2</f>
         <v>959.64680474542638</v>
       </c>
-      <c r="C101">
-        <v>77163583.226031199</v>
-      </c>
-      <c r="D101">
-        <v>77163583</v>
-      </c>
       <c r="E101">
-        <v>160466420</v>
-      </c>
-      <c r="F101" s="2"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31020332</v>
+      </c>
+      <c r="F101">
+        <v>7649699</v>
+      </c>
+      <c r="G101" s="2"/>
+      <c r="H101" s="8"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
-      <c r="B102" s="1">
-        <f>POWER(2,A102/24)*$B$2</f>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102" s="1">
+        <f>POWER(2,A102/24)*$D$2</f>
         <v>987.76660251224848</v>
       </c>
-      <c r="C102">
-        <v>32775844.406924199</v>
-      </c>
-      <c r="D102">
-        <v>32775844</v>
-      </c>
       <c r="E102">
-        <v>12080481</v>
-      </c>
-      <c r="F102" s="2"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9226350</v>
+      </c>
+      <c r="F102">
+        <v>33233826</v>
+      </c>
+      <c r="G102" s="2"/>
+      <c r="H102" s="9"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
-      <c r="B103" s="1">
-        <f>POWER(2,A103/24)*$B$2</f>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>5</v>
+      </c>
+      <c r="D103" s="1">
+        <f>POWER(2,A103/24)*$D$2</f>
         <v>1016.7103732476002</v>
       </c>
-      <c r="C103">
-        <v>16742553.092472101</v>
-      </c>
-      <c r="D103">
-        <v>16742553</v>
-      </c>
       <c r="E103">
-        <v>44380044</v>
-      </c>
-      <c r="F103" s="2"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9536669</v>
+      </c>
+      <c r="F103">
+        <v>6047871</v>
+      </c>
+      <c r="G103" s="2"/>
+      <c r="H103" s="7"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
-      <c r="B104" s="1">
-        <f>POWER(2,A104/24)*$B$2</f>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>6</v>
+      </c>
+      <c r="D104" s="1">
+        <f>POWER(2,A104/24)*$D$2</f>
         <v>1046.5022612023945</v>
       </c>
-      <c r="C104">
-        <v>28783946.149049498</v>
-      </c>
-      <c r="D104">
-        <v>28783946</v>
-      </c>
       <c r="E104">
-        <v>30516305</v>
-      </c>
-      <c r="F104" s="2"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17230450</v>
+      </c>
+      <c r="F104">
+        <v>20299204</v>
+      </c>
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
-      <c r="B105" s="1">
-        <f>POWER(2,A105/24)*$B$2</f>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>7</v>
+      </c>
+      <c r="D105" s="1">
+        <f>POWER(2,A105/24)*$D$2</f>
         <v>1077.1671181080967</v>
       </c>
-      <c r="C105">
-        <v>7928680.2951832404</v>
-      </c>
-      <c r="D105">
-        <v>7928680</v>
-      </c>
       <c r="E105">
-        <v>10163186</v>
-      </c>
-      <c r="F105" s="2"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12666657</v>
+      </c>
+      <c r="F105">
+        <v>16231868</v>
+      </c>
+      <c r="G105" s="2"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
-      <c r="B106" s="1">
-        <f>POWER(2,A106/24)*$B$2</f>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>8</v>
+      </c>
+      <c r="D106" s="1">
+        <f>POWER(2,A106/24)*$D$2</f>
         <v>1108.7305239074881</v>
       </c>
-      <c r="C106">
-        <v>16566384.362206999</v>
-      </c>
-      <c r="D106">
-        <v>16566384</v>
-      </c>
       <c r="E106">
-        <v>23698440</v>
-      </c>
-      <c r="F106" s="2"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12027155</v>
+      </c>
+      <c r="F106">
+        <v>13990623</v>
+      </c>
+      <c r="G106" s="2"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
-      <c r="B107" s="1">
-        <f>POWER(2,A107/24)*$B$2</f>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>9</v>
+      </c>
+      <c r="D107" s="1">
+        <f>POWER(2,A107/24)*$D$2</f>
         <v>1141.2188080928881</v>
       </c>
-      <c r="C107">
-        <v>21296367.139701601</v>
-      </c>
-      <c r="D107">
-        <v>21296367</v>
-      </c>
       <c r="E107">
-        <v>7827547</v>
-      </c>
-      <c r="F107" s="2"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3864707</v>
+      </c>
+      <c r="F107">
+        <v>4595041</v>
+      </c>
+      <c r="G107" s="2"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
-      <c r="B108" s="1">
-        <f>POWER(2,A108/24)*$B$2</f>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>10</v>
+      </c>
+      <c r="D108" s="1">
+        <f>POWER(2,A108/24)*$D$2</f>
         <v>1174.6590716696305</v>
       </c>
-      <c r="C108">
-        <v>6698033.2311467296</v>
-      </c>
-      <c r="D108">
-        <v>6698033</v>
-      </c>
       <c r="E108">
-        <v>3558599</v>
-      </c>
-      <c r="F108" s="2"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2791334</v>
+      </c>
+      <c r="F108">
+        <v>6599326</v>
+      </c>
+      <c r="G108" s="2"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
-      <c r="B109" s="1">
-        <f>POWER(2,A109/24)*$B$2</f>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>11</v>
+      </c>
+      <c r="D109" s="1">
+        <f>POWER(2,A109/24)*$D$2</f>
         <v>1209.0792097631183</v>
       </c>
-      <c r="C109">
-        <v>17994237.242117599</v>
-      </c>
-      <c r="D109">
-        <v>17994237</v>
-      </c>
       <c r="E109">
-        <v>26784890</v>
-      </c>
-      <c r="F109" s="2"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7050987</v>
+      </c>
+      <c r="F109">
+        <v>5845700</v>
+      </c>
+      <c r="G109" s="2"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
-      <c r="B110" s="1">
-        <f>POWER(2,A110/24)*$B$2</f>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>12</v>
+      </c>
+      <c r="D110" s="1">
+        <f>POWER(2,A110/24)*$D$2</f>
         <v>1244.5079348883235</v>
       </c>
-      <c r="C110">
-        <v>35148835.803686298</v>
-      </c>
-      <c r="D110">
-        <v>35148836</v>
-      </c>
       <c r="E110">
-        <v>20193324</v>
-      </c>
-      <c r="F110" s="2"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9000435</v>
+      </c>
+      <c r="F110">
+        <v>9619079</v>
+      </c>
+      <c r="G110" s="2"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
-      <c r="B111" s="1">
-        <f>POWER(2,A111/24)*$B$2</f>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>13</v>
+      </c>
+      <c r="D111" s="1">
+        <f>POWER(2,A111/24)*$D$2</f>
         <v>1280.974800901125</v>
       </c>
-      <c r="C111">
-        <v>39155805.054661103</v>
-      </c>
-      <c r="D111">
-        <v>39155805</v>
-      </c>
       <c r="E111">
-        <v>23058139</v>
-      </c>
-      <c r="F111" s="2"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5739419</v>
+      </c>
+      <c r="F111">
+        <v>1052284</v>
+      </c>
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
-      <c r="B112" s="1">
-        <f>POWER(2,A112/24)*$B$2</f>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>14</v>
+      </c>
+      <c r="D112" s="1">
+        <f>POWER(2,A112/24)*$D$2</f>
         <v>1318.5102276514795</v>
       </c>
-      <c r="C112">
-        <v>153643455.03721401</v>
-      </c>
-      <c r="D112">
-        <v>153643455</v>
-      </c>
       <c r="E112">
-        <v>118165262</v>
-      </c>
-      <c r="F112" s="2"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2045075</v>
+      </c>
+      <c r="F112">
+        <v>5283516</v>
+      </c>
+      <c r="G112" s="2"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
-      <c r="B113" s="1">
-        <f>POWER(2,A113/24)*$B$2</f>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>15</v>
+      </c>
+      <c r="D113" s="1">
+        <f>POWER(2,A113/24)*$D$2</f>
         <v>1357.1455263589876</v>
       </c>
-      <c r="C113">
-        <v>43915136.658642702</v>
-      </c>
-      <c r="D113">
-        <v>43915137</v>
-      </c>
       <c r="E113">
-        <v>150518488</v>
-      </c>
-      <c r="F113" s="2"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2762221</v>
+      </c>
+      <c r="F113">
+        <v>1986817</v>
+      </c>
+      <c r="G113" s="2"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
-      <c r="B114" s="1">
-        <f>POWER(2,A114/24)*$B$2</f>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>16</v>
+      </c>
+      <c r="D114" s="1">
+        <f>POWER(2,A114/24)*$D$2</f>
         <v>1396.9129257320158</v>
       </c>
-      <c r="C114">
-        <v>29881150.109276298</v>
-      </c>
-      <c r="D114">
-        <v>29881150</v>
-      </c>
       <c r="E114">
-        <v>9142687</v>
-      </c>
-      <c r="F114" s="2"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6736494</v>
+      </c>
+      <c r="F114">
+        <v>7351207</v>
+      </c>
+      <c r="G114" s="2"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
-      <c r="B115" s="1">
-        <f>POWER(2,A115/24)*$B$2</f>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>17</v>
+      </c>
+      <c r="D115" s="1">
+        <f>POWER(2,A115/24)*$D$2</f>
         <v>1437.8455988521678</v>
       </c>
-      <c r="C115">
-        <v>19652798.561991099</v>
-      </c>
-      <c r="D115">
-        <v>19652799</v>
-      </c>
       <c r="E115">
-        <v>11007592</v>
-      </c>
-      <c r="F115" s="2"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2383197</v>
+      </c>
+      <c r="F115">
+        <v>6224575</v>
+      </c>
+      <c r="G115" s="2"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
-      <c r="B116" s="1">
-        <f>POWER(2,A116/24)*$B$2</f>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>18</v>
+      </c>
+      <c r="D116" s="1">
+        <f>POWER(2,A116/24)*$D$2</f>
         <v>1479.9776908465376</v>
       </c>
-      <c r="C116">
-        <v>12316139.4048208</v>
-      </c>
-      <c r="D116">
-        <v>12316139</v>
-      </c>
       <c r="E116">
-        <v>13519257</v>
-      </c>
-      <c r="F116" s="2"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5303013</v>
+      </c>
+      <c r="F116">
+        <v>5773724</v>
+      </c>
+      <c r="G116" s="2"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
-      <c r="B117" s="1">
-        <f>POWER(2,A117/24)*$B$2</f>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>19</v>
+      </c>
+      <c r="D117" s="1">
+        <f>POWER(2,A117/24)*$D$2</f>
         <v>1523.3443473708119</v>
       </c>
-      <c r="C117">
-        <v>7595986.8429422202</v>
-      </c>
-      <c r="D117">
-        <v>7595987</v>
-      </c>
       <c r="E117">
-        <v>11937211</v>
-      </c>
-      <c r="F117" s="2"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4603413</v>
+      </c>
+      <c r="F117">
+        <v>6120189</v>
+      </c>
+      <c r="G117" s="2"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
-      <c r="B118" s="1">
-        <f>POWER(2,A118/24)*$B$2</f>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>20</v>
+      </c>
+      <c r="D118" s="1">
+        <f>POWER(2,A118/24)*$D$2</f>
         <v>1567.9817439269968</v>
       </c>
-      <c r="C118">
-        <v>4970602.8402891299</v>
-      </c>
-      <c r="D118">
-        <v>4970603</v>
-      </c>
       <c r="E118">
-        <v>9586970</v>
-      </c>
-      <c r="F118" s="2"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1591861</v>
+      </c>
+      <c r="F118">
+        <v>5898482</v>
+      </c>
+      <c r="G118" s="2"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
-      <c r="B119" s="1">
-        <f>POWER(2,A119/24)*$B$2</f>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>21</v>
+      </c>
+      <c r="D119" s="1">
+        <f>POWER(2,A119/24)*$D$2</f>
         <v>1613.9271160402209</v>
       </c>
-      <c r="C119">
-        <v>3765399.5451369798</v>
-      </c>
-      <c r="D119">
-        <v>3765400</v>
-      </c>
       <c r="E119">
-        <v>6491543</v>
-      </c>
-      <c r="F119" s="2"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5142471</v>
+      </c>
+      <c r="F119">
+        <v>6071055</v>
+      </c>
+      <c r="G119" s="2"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
-      <c r="B120" s="1">
-        <f>POWER(2,A120/24)*$B$2</f>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>22</v>
+      </c>
+      <c r="D120" s="1">
+        <f>POWER(2,A120/24)*$D$2</f>
         <v>1661.218790319781</v>
       </c>
-      <c r="C120">
-        <v>3335845.1650191201</v>
-      </c>
-      <c r="D120">
-        <v>3335845</v>
-      </c>
       <c r="E120">
-        <v>2720135</v>
-      </c>
-      <c r="F120" s="2"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5169886</v>
+      </c>
+      <c r="F120">
+        <v>2330696</v>
+      </c>
+      <c r="G120" s="2"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
-      <c r="B121" s="1">
-        <f>POWER(2,A121/24)*$B$2</f>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>23</v>
+      </c>
+      <c r="D121" s="1">
+        <f>POWER(2,A121/24)*$D$2</f>
         <v>1709.8962164303452</v>
       </c>
-      <c r="C121">
-        <v>3356189.8708636402</v>
-      </c>
-      <c r="D121">
-        <v>3356190</v>
-      </c>
       <c r="E121">
-        <v>2621586</v>
-      </c>
-      <c r="F121" s="2"/>
+        <v>4671919</v>
+      </c>
+      <c r="F121">
+        <v>2570786</v>
+      </c>
+      <c r="G121" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/other/DFTOutputComparer.xlsx
+++ b/other/DFTOutputComparer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caibi\Development\CCHW\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25299317-FB5A-429D-96A1-84B3F1E5637F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F29487-63FC-44C0-A5F2-A76F7A41B7F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B47C612-C474-4B91-BE2C-CA782D74DD8D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B47C612-C474-4B91-BE2C-CA782D74DD8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -127,7 +127,7 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -226,10 +226,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.8017545960266916E-2"/>
-          <c:y val="6.5276512372459516E-2"/>
-          <c:w val="0.94374193450293731"/>
-          <c:h val="0.84941257961657435"/>
+          <c:x val="8.3271227460203837E-2"/>
+          <c:y val="8.7568499282095924E-2"/>
+          <c:w val="0.90933933258342692"/>
+          <c:h val="0.80482882639359399"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1801,7 +1801,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-CA"/>
-                  <a:t>Frequency</a:t>
+                  <a:t>Frequency (Hz)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2044,9 +2044,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.9447167417902178E-2"/>
-          <c:y val="6.7059648182659845E-2"/>
-          <c:w val="6.9953330693201157E-2"/>
+          <c:x val="9.1005624296962878E-2"/>
+          <c:y val="7.2632715713498358E-2"/>
+          <c:w val="0.1045853359239186"/>
           <c:h val="7.8878721858044884E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3858,15 +3858,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:rowOff>100013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3894,15 +3894,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>157161</xdr:rowOff>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>185736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4231,7 +4231,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomLeft" activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4304,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <f>POWER(2,A3/24)*$D$2</f>
+        <f t="shared" ref="D3:D34" si="0">POWER(2,A3/24)*$D$2</f>
         <v>56.611623015392063</v>
       </c>
       <c r="E3">
@@ -4332,7 +4332,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <f>POWER(2,A4/24)*$D$2</f>
+        <f t="shared" si="0"/>
         <v>58.270470189761241</v>
       </c>
       <c r="E4">
@@ -4343,11 +4343,11 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4">
-        <f>E2+E26+E50+E74+E98</f>
+        <f t="shared" ref="H4:H27" si="1">E2+E26+E50+E74+E98</f>
         <v>143899008</v>
       </c>
       <c r="I4">
-        <f>F2+F26+F50+F74+F98</f>
+        <f t="shared" ref="I4:I27" si="2">F2+F26+F50+F74+F98</f>
         <v>279153691</v>
       </c>
     </row>
@@ -4362,7 +4362,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <f>POWER(2,A5/24)*$D$2</f>
+        <f t="shared" si="0"/>
         <v>59.97792529658917</v>
       </c>
       <c r="E5">
@@ -4373,11 +4373,11 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5">
-        <f>E3+E27+E51+E75+E99</f>
+        <f t="shared" si="1"/>
         <v>1727959846</v>
       </c>
       <c r="I5">
-        <f>F3+F27+F51+F75+F99</f>
+        <f t="shared" si="2"/>
         <v>1527160265</v>
       </c>
     </row>
@@ -4392,7 +4392,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <f>POWER(2,A6/24)*$D$2</f>
+        <f t="shared" si="0"/>
         <v>61.735412657015516</v>
       </c>
       <c r="E6">
@@ -4403,11 +4403,11 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6">
-        <f>E4+E28+E52+E76+E100</f>
+        <f t="shared" si="1"/>
         <v>242123508</v>
       </c>
       <c r="I6">
-        <f>F4+F28+F52+F76+F100</f>
+        <f t="shared" si="2"/>
         <v>69760683</v>
       </c>
     </row>
@@ -4422,7 +4422,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <f>POWER(2,A7/24)*$D$2</f>
+        <f t="shared" si="0"/>
         <v>63.54439832797501</v>
       </c>
       <c r="E7">
@@ -4433,11 +4433,11 @@
       </c>
       <c r="G7" s="2"/>
       <c r="H7">
-        <f>E5+E29+E53+E77+E101</f>
+        <f t="shared" si="1"/>
         <v>129227097</v>
       </c>
       <c r="I7">
-        <f>F5+F29+F53+F77+F101</f>
+        <f t="shared" si="2"/>
         <v>162268955</v>
       </c>
     </row>
@@ -4452,7 +4452,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <f>POWER(2,A8/24)*$D$2</f>
+        <f t="shared" si="0"/>
         <v>65.406391325149656</v>
       </c>
       <c r="E8">
@@ -4463,11 +4463,11 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8">
-        <f>E6+E30+E54+E78+E102</f>
+        <f t="shared" si="1"/>
         <v>106968139</v>
       </c>
       <c r="I8">
-        <f>F6+F30+F54+F78+F102</f>
+        <f t="shared" si="2"/>
         <v>121103116</v>
       </c>
     </row>
@@ -4482,7 +4482,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="1">
-        <f>POWER(2,A9/24)*$D$2</f>
+        <f t="shared" si="0"/>
         <v>67.322944881756044</v>
       </c>
       <c r="E9">
@@ -4493,11 +4493,11 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9">
-        <f>E7+E31+E55+E79+E103</f>
+        <f t="shared" si="1"/>
         <v>141314151</v>
       </c>
       <c r="I9">
-        <f>F7+F31+F55+F79+F103</f>
+        <f t="shared" si="2"/>
         <v>109252902</v>
       </c>
     </row>
@@ -4512,7 +4512,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <f>POWER(2,A10/24)*$D$2</f>
+        <f t="shared" si="0"/>
         <v>69.295657744218019</v>
       </c>
       <c r="E10">
@@ -4523,11 +4523,11 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10">
-        <f>E8+E32+E56+E80+E104</f>
+        <f t="shared" si="1"/>
         <v>154332346</v>
       </c>
       <c r="I10">
-        <f>F8+F32+F56+F80+F104</f>
+        <f t="shared" si="2"/>
         <v>135103343</v>
       </c>
     </row>
@@ -4542,7 +4542,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="1">
-        <f>POWER(2,A11/24)*$D$2</f>
+        <f t="shared" si="0"/>
         <v>71.326175505805537</v>
       </c>
       <c r="E11">
@@ -4553,11 +4553,11 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11">
-        <f>E9+E33+E57+E81+E105</f>
+        <f t="shared" si="1"/>
         <v>94364231</v>
       </c>
       <c r="I11">
-        <f>F9+F33+F57+F81+F105</f>
+        <f t="shared" si="2"/>
         <v>96675749</v>
       </c>
     </row>
@@ -4572,7 +4572,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="1">
-        <f>POWER(2,A12/24)*$D$2</f>
+        <f t="shared" si="0"/>
         <v>73.416191979351893</v>
       </c>
       <c r="E12">
@@ -4583,11 +4583,11 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12">
-        <f>E10+E34+E58+E82+E106</f>
+        <f t="shared" si="1"/>
         <v>78672896</v>
       </c>
       <c r="I12">
-        <f>F10+F34+F58+F82+F106</f>
+        <f t="shared" si="2"/>
         <v>124577967</v>
       </c>
     </row>
@@ -4602,7 +4602,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="1">
-        <f>POWER(2,A13/24)*$D$2</f>
+        <f t="shared" si="0"/>
         <v>75.567450610194896</v>
       </c>
       <c r="E13">
@@ -4613,11 +4613,11 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13">
-        <f>E11+E35+E59+E83+E107</f>
+        <f t="shared" si="1"/>
         <v>105484875</v>
       </c>
       <c r="I13">
-        <f>F11+F35+F59+F83+F107</f>
+        <f t="shared" si="2"/>
         <v>108281534</v>
       </c>
     </row>
@@ -4632,7 +4632,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="1">
-        <f>POWER(2,A14/24)*$D$2</f>
+        <f t="shared" si="0"/>
         <v>77.781745930520231</v>
       </c>
       <c r="E14">
@@ -4643,11 +4643,11 @@
       </c>
       <c r="G14" s="2"/>
       <c r="H14">
-        <f>E12+E36+E60+E84+E108</f>
+        <f t="shared" si="1"/>
         <v>174920364</v>
       </c>
       <c r="I14">
-        <f>F12+F36+F60+F84+F108</f>
+        <f t="shared" si="2"/>
         <v>154680775</v>
       </c>
     </row>
@@ -4662,7 +4662,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="1">
-        <f>POWER(2,A15/24)*$D$2</f>
+        <f t="shared" si="0"/>
         <v>80.060925056320301</v>
       </c>
       <c r="E15">
@@ -4673,11 +4673,11 @@
       </c>
       <c r="G15" s="2"/>
       <c r="H15">
-        <f>E13+E37+E61+E85+E109</f>
+        <f t="shared" si="1"/>
         <v>212871747</v>
       </c>
       <c r="I15">
-        <f>F13+F37+F61+F85+F109</f>
+        <f t="shared" si="2"/>
         <v>54116681</v>
       </c>
     </row>
@@ -4692,7 +4692,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="1">
-        <f>POWER(2,A16/24)*$D$2</f>
+        <f t="shared" si="0"/>
         <v>82.40688922821748</v>
       </c>
       <c r="E16">
@@ -4703,11 +4703,11 @@
       </c>
       <c r="G16" s="2"/>
       <c r="H16">
-        <f>E14+E38+E62+E86+E110</f>
+        <f t="shared" si="1"/>
         <v>262019956</v>
       </c>
       <c r="I16">
-        <f>F14+F38+F62+F86+F110</f>
+        <f t="shared" si="2"/>
         <v>228805002</v>
       </c>
     </row>
@@ -4722,7 +4722,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="1">
-        <f>POWER(2,A17/24)*$D$2</f>
+        <f t="shared" si="0"/>
         <v>84.821595397436738</v>
       </c>
       <c r="E17">
@@ -4733,11 +4733,11 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17">
-        <f>E15+E39+E63+E87+E111</f>
+        <f t="shared" si="1"/>
         <v>380433102</v>
       </c>
       <c r="I17">
-        <f>F15+F39+F63+F87+F111</f>
+        <f t="shared" si="2"/>
         <v>266341234</v>
       </c>
     </row>
@@ -4752,7 +4752,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="1">
-        <f>POWER(2,A18/24)*$D$2</f>
+        <f t="shared" si="0"/>
         <v>87.307057858250971</v>
       </c>
       <c r="E18">
@@ -4763,11 +4763,11 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18">
-        <f>E16+E40+E64+E88+E112</f>
+        <f t="shared" si="1"/>
         <v>913908432</v>
       </c>
       <c r="I18">
-        <f>F16+F40+F64+F88+F112</f>
+        <f t="shared" si="2"/>
         <v>162317395</v>
       </c>
     </row>
@@ -4782,7 +4782,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="1">
-        <f>POWER(2,A19/24)*$D$2</f>
+        <f t="shared" si="0"/>
         <v>89.865349928260486</v>
       </c>
       <c r="E19">
@@ -4793,11 +4793,11 @@
       </c>
       <c r="G19" s="2"/>
       <c r="H19">
-        <f>E17+E41+E65+E89+E113</f>
+        <f t="shared" si="1"/>
         <v>1159769925</v>
       </c>
       <c r="I19">
-        <f>F17+F41+F65+F89+F113</f>
+        <f t="shared" si="2"/>
         <v>1419096494</v>
       </c>
     </row>
@@ -4812,7 +4812,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="1">
-        <f>POWER(2,A20/24)*$D$2</f>
+        <f t="shared" si="0"/>
         <v>92.4986056779086</v>
       </c>
       <c r="E20">
@@ -4823,11 +4823,11 @@
       </c>
       <c r="G20" s="2"/>
       <c r="H20">
-        <f>E18+E42+E66+E90+E114</f>
+        <f t="shared" si="1"/>
         <v>381360102</v>
       </c>
       <c r="I20">
-        <f>F18+F42+F66+F90+F114</f>
+        <f t="shared" si="2"/>
         <v>629211629</v>
       </c>
     </row>
@@ -4842,7 +4842,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="1">
-        <f>POWER(2,A21/24)*$D$2</f>
+        <f t="shared" si="0"/>
         <v>95.209021710675728</v>
       </c>
       <c r="E21">
@@ -4853,11 +4853,11 @@
       </c>
       <c r="G21" s="2"/>
       <c r="H21">
-        <f>E19+E43+E67+E91+E115</f>
+        <f t="shared" si="1"/>
         <v>246097229</v>
       </c>
       <c r="I21">
-        <f>F19+F43+F67+F91+F115</f>
+        <f t="shared" si="2"/>
         <v>366625021</v>
       </c>
     </row>
@@ -4872,7 +4872,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <f>POWER(2,A22/24)*$D$2</f>
+        <f t="shared" si="0"/>
         <v>97.998858995437317</v>
       </c>
       <c r="E22">
@@ -4883,11 +4883,11 @@
       </c>
       <c r="G22" s="2"/>
       <c r="H22">
-        <f>E20+E44+E68+E92+E116</f>
+        <f t="shared" si="1"/>
         <v>216107104</v>
       </c>
       <c r="I22">
-        <f>F20+F44+F68+F92+F116</f>
+        <f t="shared" si="2"/>
         <v>246470151</v>
       </c>
     </row>
@@ -4902,7 +4902,7 @@
         <v>21</v>
       </c>
       <c r="D23" s="1">
-        <f>POWER(2,A23/24)*$D$2</f>
+        <f t="shared" si="0"/>
         <v>100.87044475251383</v>
       </c>
       <c r="E23">
@@ -4913,11 +4913,11 @@
       </c>
       <c r="G23" s="2"/>
       <c r="H23">
-        <f>E21+E45+E69+E93+E117</f>
+        <f t="shared" si="1"/>
         <v>132620919</v>
       </c>
       <c r="I23">
-        <f>F21+F45+F69+F93+F117</f>
+        <f t="shared" si="2"/>
         <v>197818736</v>
       </c>
     </row>
@@ -4932,7 +4932,7 @@
         <v>22</v>
       </c>
       <c r="D24" s="1">
-        <f>POWER(2,A24/24)*$D$2</f>
+        <f t="shared" si="0"/>
         <v>103.82617439498628</v>
       </c>
       <c r="E24">
@@ -4943,11 +4943,11 @@
       </c>
       <c r="G24" s="2"/>
       <c r="H24">
-        <f>E22+E46+E70+E94+E118</f>
+        <f t="shared" si="1"/>
         <v>85077402</v>
       </c>
       <c r="I24">
-        <f>F22+F46+F70+F94+F118</f>
+        <f t="shared" si="2"/>
         <v>185517540</v>
       </c>
     </row>
@@ -4962,7 +4962,7 @@
         <v>23</v>
       </c>
       <c r="D25" s="1">
-        <f>POWER(2,A25/24)*$D$2</f>
+        <f t="shared" si="0"/>
         <v>106.86851352689665</v>
       </c>
       <c r="E25">
@@ -4973,11 +4973,11 @@
       </c>
       <c r="G25" s="2"/>
       <c r="H25">
-        <f>E23+E47+E71+E95+E119</f>
+        <f t="shared" si="1"/>
         <v>199044320</v>
       </c>
       <c r="I25">
-        <f>F23+F47+F71+F95+F119</f>
+        <f t="shared" si="2"/>
         <v>233358029</v>
       </c>
     </row>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="1">
-        <f>POWER(2,A26/24)*$D$2</f>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="E26">
@@ -5003,11 +5003,11 @@
       </c>
       <c r="G26" s="2"/>
       <c r="H26">
-        <f>E24+E48+E72+E96+E120</f>
+        <f t="shared" si="1"/>
         <v>285364491</v>
       </c>
       <c r="I26">
-        <f>F24+F48+F72+F96+F120</f>
+        <f t="shared" si="2"/>
         <v>300143718</v>
       </c>
     </row>
@@ -5022,7 +5022,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="1">
-        <f>POWER(2,A27/24)*$D$2</f>
+        <f t="shared" si="0"/>
         <v>113.22324603078413</v>
       </c>
       <c r="E27">
@@ -5033,11 +5033,11 @@
       </c>
       <c r="G27" s="2"/>
       <c r="H27">
-        <f>E25+E49+E73+E97+E121</f>
+        <f t="shared" si="1"/>
         <v>473343831</v>
       </c>
       <c r="I27">
-        <f>F25+F49+F73+F97+F121</f>
+        <f t="shared" si="2"/>
         <v>298052929</v>
       </c>
     </row>
@@ -5052,7 +5052,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="1">
-        <f>POWER(2,A28/24)*$D$2</f>
+        <f t="shared" si="0"/>
         <v>116.54094037952245</v>
       </c>
       <c r="E28">
@@ -5074,7 +5074,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="1">
-        <f>POWER(2,A29/24)*$D$2</f>
+        <f t="shared" si="0"/>
         <v>119.95585059317834</v>
       </c>
       <c r="E29">
@@ -5096,7 +5096,7 @@
         <v>4</v>
       </c>
       <c r="D30" s="1">
-        <f>POWER(2,A30/24)*$D$2</f>
+        <f t="shared" si="0"/>
         <v>123.47082531403103</v>
       </c>
       <c r="E30">
@@ -5118,7 +5118,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="1">
-        <f>POWER(2,A31/24)*$D$2</f>
+        <f t="shared" si="0"/>
         <v>127.08879665595002</v>
       </c>
       <c r="E31">
@@ -5140,7 +5140,7 @@
         <v>6</v>
       </c>
       <c r="D32" s="1">
-        <f>POWER(2,A32/24)*$D$2</f>
+        <f t="shared" si="0"/>
         <v>130.81278265029931</v>
       </c>
       <c r="E32">
@@ -5162,7 +5162,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="1">
-        <f>POWER(2,A33/24)*$D$2</f>
+        <f t="shared" si="0"/>
         <v>134.64588976351209</v>
       </c>
       <c r="E33">
@@ -5184,7 +5184,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="1">
-        <f>POWER(2,A34/24)*$D$2</f>
+        <f t="shared" si="0"/>
         <v>138.59131548843604</v>
       </c>
       <c r="E34">
@@ -5206,7 +5206,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="1">
-        <f>POWER(2,A35/24)*$D$2</f>
+        <f t="shared" ref="D35:D66" si="3">POWER(2,A35/24)*$D$2</f>
         <v>142.65235101161107</v>
       </c>
       <c r="E35">
@@ -5228,7 +5228,7 @@
         <v>10</v>
       </c>
       <c r="D36" s="1">
-        <f>POWER(2,A36/24)*$D$2</f>
+        <f t="shared" si="3"/>
         <v>146.83238395870379</v>
       </c>
       <c r="E36">
@@ -5250,7 +5250,7 @@
         <v>11</v>
       </c>
       <c r="D37" s="1">
-        <f>POWER(2,A37/24)*$D$2</f>
+        <f t="shared" si="3"/>
         <v>151.13490122038979</v>
       </c>
       <c r="E37">
@@ -5272,7 +5272,7 @@
         <v>12</v>
       </c>
       <c r="D38" s="1">
-        <f>POWER(2,A38/24)*$D$2</f>
+        <f t="shared" si="3"/>
         <v>155.56349186104043</v>
       </c>
       <c r="E38">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="D39" s="1">
-        <f>POWER(2,A39/24)*$D$2</f>
+        <f t="shared" si="3"/>
         <v>160.1218501126406</v>
       </c>
       <c r="E39">
@@ -5317,7 +5317,7 @@
         <v>14</v>
       </c>
       <c r="D40" s="1">
-        <f>POWER(2,A40/24)*$D$2</f>
+        <f t="shared" si="3"/>
         <v>164.81377845643493</v>
       </c>
       <c r="E40">
@@ -5339,7 +5339,7 @@
         <v>15</v>
       </c>
       <c r="D41" s="1">
-        <f>POWER(2,A41/24)*$D$2</f>
+        <f t="shared" si="3"/>
         <v>169.64319079487348</v>
       </c>
       <c r="E41">
@@ -5362,7 +5362,7 @@
         <v>16</v>
       </c>
       <c r="D42" s="1">
-        <f>POWER(2,A42/24)*$D$2</f>
+        <f t="shared" si="3"/>
         <v>174.61411571650194</v>
       </c>
       <c r="E42">
@@ -5385,7 +5385,7 @@
         <v>17</v>
       </c>
       <c r="D43" s="1">
-        <f>POWER(2,A43/24)*$D$2</f>
+        <f t="shared" si="3"/>
         <v>179.73069985652094</v>
       </c>
       <c r="E43">
@@ -5408,7 +5408,7 @@
         <v>18</v>
       </c>
       <c r="D44" s="1">
-        <f>POWER(2,A44/24)*$D$2</f>
+        <f t="shared" si="3"/>
         <v>184.9972113558172</v>
       </c>
       <c r="E44">
@@ -5431,7 +5431,7 @@
         <v>19</v>
       </c>
       <c r="D45" s="1">
-        <f>POWER(2,A45/24)*$D$2</f>
+        <f t="shared" si="3"/>
         <v>190.41804342135148</v>
       </c>
       <c r="E45">
@@ -5453,7 +5453,7 @@
         <v>20</v>
       </c>
       <c r="D46" s="1">
-        <f>POWER(2,A46/24)*$D$2</f>
+        <f t="shared" si="3"/>
         <v>195.99771799087461</v>
       </c>
       <c r="E46">
@@ -5475,7 +5475,7 @@
         <v>21</v>
       </c>
       <c r="D47" s="1">
-        <f>POWER(2,A47/24)*$D$2</f>
+        <f t="shared" si="3"/>
         <v>201.74088950502767</v>
       </c>
       <c r="E47">
@@ -5497,7 +5497,7 @@
         <v>22</v>
       </c>
       <c r="D48" s="1">
-        <f>POWER(2,A48/24)*$D$2</f>
+        <f t="shared" si="3"/>
         <v>207.65234878997256</v>
       </c>
       <c r="E48">
@@ -5519,7 +5519,7 @@
         <v>23</v>
       </c>
       <c r="D49" s="1">
-        <f>POWER(2,A49/24)*$D$2</f>
+        <f t="shared" si="3"/>
         <v>213.73702705379327</v>
       </c>
       <c r="E49">
@@ -5541,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="D50" s="1">
-        <f>POWER(2,A50/24)*$D$2</f>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="E50">
@@ -5563,7 +5563,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="1">
-        <f>POWER(2,A51/24)*$D$2</f>
+        <f t="shared" si="3"/>
         <v>226.44649206156822</v>
       </c>
       <c r="E51">
@@ -5585,7 +5585,7 @@
         <v>2</v>
       </c>
       <c r="D52" s="1">
-        <f>POWER(2,A52/24)*$D$2</f>
+        <f t="shared" si="3"/>
         <v>233.08188075904496</v>
       </c>
       <c r="E52">
@@ -5607,7 +5607,7 @@
         <v>3</v>
       </c>
       <c r="D53" s="1">
-        <f>POWER(2,A53/24)*$D$2</f>
+        <f t="shared" si="3"/>
         <v>239.91170118635668</v>
       </c>
       <c r="E53">
@@ -5629,7 +5629,7 @@
         <v>4</v>
       </c>
       <c r="D54" s="1">
-        <f>POWER(2,A54/24)*$D$2</f>
+        <f t="shared" si="3"/>
         <v>246.94165062806201</v>
       </c>
       <c r="E54">
@@ -5651,7 +5651,7 @@
         <v>5</v>
       </c>
       <c r="D55" s="1">
-        <f>POWER(2,A55/24)*$D$2</f>
+        <f t="shared" si="3"/>
         <v>254.1775933119001</v>
       </c>
       <c r="E55">
@@ -5673,7 +5673,7 @@
         <v>6</v>
       </c>
       <c r="D56" s="1">
-        <f>POWER(2,A56/24)*$D$2</f>
+        <f t="shared" si="3"/>
         <v>261.62556530059862</v>
       </c>
       <c r="E56">
@@ -5695,7 +5695,7 @@
         <v>7</v>
       </c>
       <c r="D57" s="1">
-        <f>POWER(2,A57/24)*$D$2</f>
+        <f t="shared" si="3"/>
         <v>269.29177952702412</v>
       </c>
       <c r="E57">
@@ -5717,7 +5717,7 @@
         <v>8</v>
       </c>
       <c r="D58" s="1">
-        <f>POWER(2,A58/24)*$D$2</f>
+        <f t="shared" si="3"/>
         <v>277.18263097687213</v>
       </c>
       <c r="E58">
@@ -5739,7 +5739,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="1">
-        <f>POWER(2,A59/24)*$D$2</f>
+        <f t="shared" si="3"/>
         <v>285.30470202322215</v>
       </c>
       <c r="E59">
@@ -5761,7 +5761,7 @@
         <v>10</v>
       </c>
       <c r="D60" s="1">
-        <f>POWER(2,A60/24)*$D$2</f>
+        <f t="shared" si="3"/>
         <v>293.66476791740752</v>
       </c>
       <c r="E60">
@@ -5783,7 +5783,7 @@
         <v>11</v>
       </c>
       <c r="D61" s="1">
-        <f>POWER(2,A61/24)*$D$2</f>
+        <f t="shared" si="3"/>
         <v>302.26980244077964</v>
       </c>
       <c r="E61">
@@ -5805,7 +5805,7 @@
         <v>12</v>
       </c>
       <c r="D62" s="1">
-        <f>POWER(2,A62/24)*$D$2</f>
+        <f t="shared" si="3"/>
         <v>311.12698372208092</v>
       </c>
       <c r="E62">
@@ -5827,7 +5827,7 @@
         <v>13</v>
       </c>
       <c r="D63" s="1">
-        <f>POWER(2,A63/24)*$D$2</f>
+        <f t="shared" si="3"/>
         <v>320.24370022528115</v>
       </c>
       <c r="E63">
@@ -5849,7 +5849,7 @@
         <v>14</v>
       </c>
       <c r="D64" s="1">
-        <f>POWER(2,A64/24)*$D$2</f>
+        <f t="shared" si="3"/>
         <v>329.62755691286998</v>
       </c>
       <c r="E64">
@@ -5871,7 +5871,7 @@
         <v>15</v>
       </c>
       <c r="D65" s="1">
-        <f>POWER(2,A65/24)*$D$2</f>
+        <f t="shared" si="3"/>
         <v>339.28638158974695</v>
       </c>
       <c r="E65">
@@ -5893,7 +5893,7 @@
         <v>16</v>
       </c>
       <c r="D66" s="1">
-        <f>POWER(2,A66/24)*$D$2</f>
+        <f t="shared" si="3"/>
         <v>349.22823143300388</v>
       </c>
       <c r="E66">
@@ -5915,7 +5915,7 @@
         <v>17</v>
       </c>
       <c r="D67" s="1">
-        <f>POWER(2,A67/24)*$D$2</f>
+        <f t="shared" ref="D67:D98" si="4">POWER(2,A67/24)*$D$2</f>
         <v>359.46139971304194</v>
       </c>
       <c r="E67">
@@ -5937,7 +5937,7 @@
         <v>18</v>
       </c>
       <c r="D68" s="1">
-        <f>POWER(2,A68/24)*$D$2</f>
+        <f t="shared" si="4"/>
         <v>369.99442271163446</v>
       </c>
       <c r="E68">
@@ -5959,7 +5959,7 @@
         <v>19</v>
       </c>
       <c r="D69" s="1">
-        <f>POWER(2,A69/24)*$D$2</f>
+        <f t="shared" si="4"/>
         <v>380.83608684270291</v>
       </c>
       <c r="E69">
@@ -5981,7 +5981,7 @@
         <v>20</v>
       </c>
       <c r="D70" s="1">
-        <f>POWER(2,A70/24)*$D$2</f>
+        <f t="shared" si="4"/>
         <v>391.99543598174927</v>
       </c>
       <c r="E70">
@@ -6003,7 +6003,7 @@
         <v>21</v>
       </c>
       <c r="D71" s="1">
-        <f>POWER(2,A71/24)*$D$2</f>
+        <f t="shared" si="4"/>
         <v>403.48177901005533</v>
       </c>
       <c r="E71">
@@ -6026,7 +6026,7 @@
         <v>22</v>
       </c>
       <c r="D72" s="1">
-        <f>POWER(2,A72/24)*$D$2</f>
+        <f t="shared" si="4"/>
         <v>415.30469757994501</v>
       </c>
       <c r="E72">
@@ -6048,7 +6048,7 @@
         <v>23</v>
       </c>
       <c r="D73" s="1">
-        <f>POWER(2,A73/24)*$D$2</f>
+        <f t="shared" si="4"/>
         <v>427.47405410758665</v>
       </c>
       <c r="E73">
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="D74" s="1">
-        <f>POWER(2,A74/24)*$D$2</f>
+        <f t="shared" si="4"/>
         <v>440</v>
       </c>
       <c r="E74">
@@ -6094,7 +6094,7 @@
         <v>1</v>
       </c>
       <c r="D75" s="1">
-        <f>POWER(2,A75/24)*$D$2</f>
+        <f t="shared" si="4"/>
         <v>452.89298412313644</v>
       </c>
       <c r="E75">
@@ -6117,7 +6117,7 @@
         <v>2</v>
       </c>
       <c r="D76" s="1">
-        <f>POWER(2,A76/24)*$D$2</f>
+        <f t="shared" si="4"/>
         <v>466.16376151808993</v>
       </c>
       <c r="E76">
@@ -6140,7 +6140,7 @@
         <v>3</v>
       </c>
       <c r="D77" s="1">
-        <f>POWER(2,A77/24)*$D$2</f>
+        <f t="shared" si="4"/>
         <v>479.82340237271336</v>
       </c>
       <c r="E77">
@@ -6162,7 +6162,7 @@
         <v>4</v>
       </c>
       <c r="D78" s="1">
-        <f>POWER(2,A78/24)*$D$2</f>
+        <f t="shared" si="4"/>
         <v>493.88330125612396</v>
       </c>
       <c r="E78">
@@ -6184,7 +6184,7 @@
         <v>5</v>
       </c>
       <c r="D79" s="1">
-        <f>POWER(2,A79/24)*$D$2</f>
+        <f t="shared" si="4"/>
         <v>508.35518662380019</v>
       </c>
       <c r="E79">
@@ -6206,7 +6206,7 @@
         <v>6</v>
       </c>
       <c r="D80" s="1">
-        <f>POWER(2,A80/24)*$D$2</f>
+        <f t="shared" si="4"/>
         <v>523.25113060119713</v>
       </c>
       <c r="E80">
@@ -6228,7 +6228,7 @@
         <v>7</v>
       </c>
       <c r="D81" s="1">
-        <f>POWER(2,A81/24)*$D$2</f>
+        <f t="shared" si="4"/>
         <v>538.58355905404824</v>
       </c>
       <c r="E81">
@@ -6250,7 +6250,7 @@
         <v>8</v>
       </c>
       <c r="D82" s="1">
-        <f>POWER(2,A82/24)*$D$2</f>
+        <f t="shared" si="4"/>
         <v>554.36526195374415</v>
       </c>
       <c r="E82">
@@ -6272,7 +6272,7 @@
         <v>9</v>
       </c>
       <c r="D83" s="1">
-        <f>POWER(2,A83/24)*$D$2</f>
+        <f t="shared" si="4"/>
         <v>570.6094040464443</v>
       </c>
       <c r="E83">
@@ -6294,7 +6294,7 @@
         <v>10</v>
       </c>
       <c r="D84" s="1">
-        <f>POWER(2,A84/24)*$D$2</f>
+        <f t="shared" si="4"/>
         <v>587.32953583481492</v>
       </c>
       <c r="E84">
@@ -6316,7 +6316,7 @@
         <v>11</v>
       </c>
       <c r="D85" s="1">
-        <f>POWER(2,A85/24)*$D$2</f>
+        <f t="shared" si="4"/>
         <v>604.53960488155928</v>
       </c>
       <c r="E85">
@@ -6338,7 +6338,7 @@
         <v>12</v>
       </c>
       <c r="D86" s="1">
-        <f>POWER(2,A86/24)*$D$2</f>
+        <f t="shared" si="4"/>
         <v>622.25396744416173</v>
       </c>
       <c r="E86">
@@ -6360,7 +6360,7 @@
         <v>13</v>
       </c>
       <c r="D87" s="1">
-        <f>POWER(2,A87/24)*$D$2</f>
+        <f t="shared" si="4"/>
         <v>640.4874004505624</v>
       </c>
       <c r="E87">
@@ -6382,7 +6382,7 @@
         <v>14</v>
       </c>
       <c r="D88" s="1">
-        <f>POWER(2,A88/24)*$D$2</f>
+        <f t="shared" si="4"/>
         <v>659.25511382573984</v>
       </c>
       <c r="E88">
@@ -6404,7 +6404,7 @@
         <v>15</v>
       </c>
       <c r="D89" s="1">
-        <f>POWER(2,A89/24)*$D$2</f>
+        <f t="shared" si="4"/>
         <v>678.57276317949402</v>
       </c>
       <c r="E89">
@@ -6426,7 +6426,7 @@
         <v>16</v>
       </c>
       <c r="D90" s="1">
-        <f>POWER(2,A90/24)*$D$2</f>
+        <f t="shared" si="4"/>
         <v>698.45646286600766</v>
       </c>
       <c r="E90">
@@ -6448,7 +6448,7 @@
         <v>17</v>
       </c>
       <c r="D91" s="1">
-        <f>POWER(2,A91/24)*$D$2</f>
+        <f t="shared" si="4"/>
         <v>718.92279942608377</v>
       </c>
       <c r="E91">
@@ -6470,7 +6470,7 @@
         <v>18</v>
       </c>
       <c r="D92" s="1">
-        <f>POWER(2,A92/24)*$D$2</f>
+        <f t="shared" si="4"/>
         <v>739.9888454232688</v>
       </c>
       <c r="E92">
@@ -6492,7 +6492,7 @@
         <v>19</v>
       </c>
       <c r="D93" s="1">
-        <f>POWER(2,A93/24)*$D$2</f>
+        <f t="shared" si="4"/>
         <v>761.67217368540582</v>
       </c>
       <c r="E93">
@@ -6514,7 +6514,7 @@
         <v>20</v>
       </c>
       <c r="D94" s="1">
-        <f>POWER(2,A94/24)*$D$2</f>
+        <f t="shared" si="4"/>
         <v>783.99087196349865</v>
       </c>
       <c r="E94">
@@ -6536,7 +6536,7 @@
         <v>21</v>
       </c>
       <c r="D95" s="1">
-        <f>POWER(2,A95/24)*$D$2</f>
+        <f t="shared" si="4"/>
         <v>806.96355802011078</v>
       </c>
       <c r="E95">
@@ -6558,7 +6558,7 @@
         <v>22</v>
       </c>
       <c r="D96" s="1">
-        <f>POWER(2,A96/24)*$D$2</f>
+        <f t="shared" si="4"/>
         <v>830.60939515989014</v>
       </c>
       <c r="E96">
@@ -6580,7 +6580,7 @@
         <v>23</v>
       </c>
       <c r="D97" s="1">
-        <f>POWER(2,A97/24)*$D$2</f>
+        <f t="shared" si="4"/>
         <v>854.94810821517308</v>
       </c>
       <c r="E97">
@@ -6602,7 +6602,7 @@
         <v>0</v>
       </c>
       <c r="D98" s="1">
-        <f>POWER(2,A98/24)*$D$2</f>
+        <f t="shared" si="4"/>
         <v>880</v>
       </c>
       <c r="E98">
@@ -6625,7 +6625,7 @@
         <v>1</v>
       </c>
       <c r="D99" s="1">
-        <f>POWER(2,A99/24)*$D$2</f>
+        <f t="shared" ref="D99:D121" si="5">POWER(2,A99/24)*$D$2</f>
         <v>905.785968246273</v>
       </c>
       <c r="E99">
@@ -6647,7 +6647,7 @@
         <v>2</v>
       </c>
       <c r="D100" s="1">
-        <f>POWER(2,A100/24)*$D$2</f>
+        <f t="shared" si="5"/>
         <v>932.32752303617951</v>
       </c>
       <c r="E100">
@@ -6670,7 +6670,7 @@
         <v>3</v>
       </c>
       <c r="D101" s="1">
-        <f>POWER(2,A101/24)*$D$2</f>
+        <f t="shared" si="5"/>
         <v>959.64680474542638</v>
       </c>
       <c r="E101">
@@ -6693,7 +6693,7 @@
         <v>4</v>
       </c>
       <c r="D102" s="1">
-        <f>POWER(2,A102/24)*$D$2</f>
+        <f t="shared" si="5"/>
         <v>987.76660251224848</v>
       </c>
       <c r="E102">
@@ -6716,7 +6716,7 @@
         <v>5</v>
       </c>
       <c r="D103" s="1">
-        <f>POWER(2,A103/24)*$D$2</f>
+        <f t="shared" si="5"/>
         <v>1016.7103732476002</v>
       </c>
       <c r="E103">
@@ -6739,7 +6739,7 @@
         <v>6</v>
       </c>
       <c r="D104" s="1">
-        <f>POWER(2,A104/24)*$D$2</f>
+        <f t="shared" si="5"/>
         <v>1046.5022612023945</v>
       </c>
       <c r="E104">
@@ -6761,7 +6761,7 @@
         <v>7</v>
       </c>
       <c r="D105" s="1">
-        <f>POWER(2,A105/24)*$D$2</f>
+        <f t="shared" si="5"/>
         <v>1077.1671181080967</v>
       </c>
       <c r="E105">
@@ -6783,7 +6783,7 @@
         <v>8</v>
       </c>
       <c r="D106" s="1">
-        <f>POWER(2,A106/24)*$D$2</f>
+        <f t="shared" si="5"/>
         <v>1108.7305239074881</v>
       </c>
       <c r="E106">
@@ -6805,7 +6805,7 @@
         <v>9</v>
       </c>
       <c r="D107" s="1">
-        <f>POWER(2,A107/24)*$D$2</f>
+        <f t="shared" si="5"/>
         <v>1141.2188080928881</v>
       </c>
       <c r="E107">
@@ -6827,7 +6827,7 @@
         <v>10</v>
       </c>
       <c r="D108" s="1">
-        <f>POWER(2,A108/24)*$D$2</f>
+        <f t="shared" si="5"/>
         <v>1174.6590716696305</v>
       </c>
       <c r="E108">
@@ -6849,7 +6849,7 @@
         <v>11</v>
       </c>
       <c r="D109" s="1">
-        <f>POWER(2,A109/24)*$D$2</f>
+        <f t="shared" si="5"/>
         <v>1209.0792097631183</v>
       </c>
       <c r="E109">
@@ -6871,7 +6871,7 @@
         <v>12</v>
       </c>
       <c r="D110" s="1">
-        <f>POWER(2,A110/24)*$D$2</f>
+        <f t="shared" si="5"/>
         <v>1244.5079348883235</v>
       </c>
       <c r="E110">
@@ -6893,7 +6893,7 @@
         <v>13</v>
       </c>
       <c r="D111" s="1">
-        <f>POWER(2,A111/24)*$D$2</f>
+        <f t="shared" si="5"/>
         <v>1280.974800901125</v>
       </c>
       <c r="E111">
@@ -6915,7 +6915,7 @@
         <v>14</v>
       </c>
       <c r="D112" s="1">
-        <f>POWER(2,A112/24)*$D$2</f>
+        <f t="shared" si="5"/>
         <v>1318.5102276514795</v>
       </c>
       <c r="E112">
@@ -6937,7 +6937,7 @@
         <v>15</v>
       </c>
       <c r="D113" s="1">
-        <f>POWER(2,A113/24)*$D$2</f>
+        <f t="shared" si="5"/>
         <v>1357.1455263589876</v>
       </c>
       <c r="E113">
@@ -6959,7 +6959,7 @@
         <v>16</v>
       </c>
       <c r="D114" s="1">
-        <f>POWER(2,A114/24)*$D$2</f>
+        <f t="shared" si="5"/>
         <v>1396.9129257320158</v>
       </c>
       <c r="E114">
@@ -6981,7 +6981,7 @@
         <v>17</v>
       </c>
       <c r="D115" s="1">
-        <f>POWER(2,A115/24)*$D$2</f>
+        <f t="shared" si="5"/>
         <v>1437.8455988521678</v>
       </c>
       <c r="E115">
@@ -7003,7 +7003,7 @@
         <v>18</v>
       </c>
       <c r="D116" s="1">
-        <f>POWER(2,A116/24)*$D$2</f>
+        <f t="shared" si="5"/>
         <v>1479.9776908465376</v>
       </c>
       <c r="E116">
@@ -7025,7 +7025,7 @@
         <v>19</v>
       </c>
       <c r="D117" s="1">
-        <f>POWER(2,A117/24)*$D$2</f>
+        <f t="shared" si="5"/>
         <v>1523.3443473708119</v>
       </c>
       <c r="E117">
@@ -7047,7 +7047,7 @@
         <v>20</v>
       </c>
       <c r="D118" s="1">
-        <f>POWER(2,A118/24)*$D$2</f>
+        <f t="shared" si="5"/>
         <v>1567.9817439269968</v>
       </c>
       <c r="E118">
@@ -7069,7 +7069,7 @@
         <v>21</v>
       </c>
       <c r="D119" s="1">
-        <f>POWER(2,A119/24)*$D$2</f>
+        <f t="shared" si="5"/>
         <v>1613.9271160402209</v>
       </c>
       <c r="E119">
@@ -7091,7 +7091,7 @@
         <v>22</v>
       </c>
       <c r="D120" s="1">
-        <f>POWER(2,A120/24)*$D$2</f>
+        <f t="shared" si="5"/>
         <v>1661.218790319781</v>
       </c>
       <c r="E120">
@@ -7113,7 +7113,7 @@
         <v>23</v>
       </c>
       <c r="D121" s="1">
-        <f>POWER(2,A121/24)*$D$2</f>
+        <f t="shared" si="5"/>
         <v>1709.8962164303452</v>
       </c>
       <c r="E121">
